--- a/2013.stats.xlsx
+++ b/2013.stats.xlsx
@@ -9,15 +9,12 @@
   <sheets>
     <sheet name="2013.stats" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
-  <si>
-    <t>School</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="370">
   <si>
     <t>G</t>
   </si>
@@ -76,18 +73,12 @@
     <t>Alabama A&amp;M</t>
   </si>
   <si>
-    <t>Alabama-Birmingham</t>
-  </si>
-  <si>
     <t>Alabama State</t>
   </si>
   <si>
     <t>Alabama</t>
   </si>
   <si>
-    <t>Albany (NY)</t>
-  </si>
-  <si>
     <t>Alcorn State</t>
   </si>
   <si>
@@ -148,15 +139,9 @@
     <t>Boston University</t>
   </si>
   <si>
-    <t>Bowling Green State</t>
-  </si>
-  <si>
     <t>Bradley</t>
   </si>
   <si>
-    <t>Brigham Young</t>
-  </si>
-  <si>
     <t>Brown</t>
   </si>
   <si>
@@ -184,18 +169,6 @@
     <t>Cal State Northridge</t>
   </si>
   <si>
-    <t>California-Davis</t>
-  </si>
-  <si>
-    <t>California-Irvine</t>
-  </si>
-  <si>
-    <t>California-Riverside</t>
-  </si>
-  <si>
-    <t>California-Santa Barbara</t>
-  </si>
-  <si>
     <t>California</t>
   </si>
   <si>
@@ -208,12 +181,6 @@
     <t>Central Arkansas</t>
   </si>
   <si>
-    <t>Central Connecticut State</t>
-  </si>
-  <si>
-    <t>Central Florida</t>
-  </si>
-  <si>
     <t>Central Michigan</t>
   </si>
   <si>
@@ -292,9 +259,6 @@
     <t>DePaul</t>
   </si>
   <si>
-    <t>Detroit Mercy</t>
-  </si>
-  <si>
     <t>Drake</t>
   </si>
   <si>
@@ -346,9 +310,6 @@
     <t>Florida Gulf Coast</t>
   </si>
   <si>
-    <t>Florida International</t>
-  </si>
-  <si>
     <t>Florida State</t>
   </si>
   <si>
@@ -517,36 +478,18 @@
     <t>Long Beach State</t>
   </si>
   <si>
-    <t>Long Island University</t>
-  </si>
-  <si>
     <t>Longwood</t>
   </si>
   <si>
     <t>Louisiana-Lafayette</t>
   </si>
   <si>
-    <t>Louisiana-Monroe</t>
-  </si>
-  <si>
-    <t>Louisiana State</t>
-  </si>
-  <si>
     <t>Louisiana Tech</t>
   </si>
   <si>
     <t>Louisville</t>
   </si>
   <si>
-    <t>Loyola (IL)</t>
-  </si>
-  <si>
-    <t>Loyola Marymount</t>
-  </si>
-  <si>
-    <t>Loyola (MD)</t>
-  </si>
-  <si>
     <t>Maine</t>
   </si>
   <si>
@@ -565,9 +508,6 @@
     <t>Maryland-Baltimore County</t>
   </si>
   <si>
-    <t>Maryland-Eastern Shore</t>
-  </si>
-  <si>
     <t>Maryland</t>
   </si>
   <si>
@@ -586,12 +526,6 @@
     <t>Mercer</t>
   </si>
   <si>
-    <t>Miami (FL)</t>
-  </si>
-  <si>
-    <t>Miami (OH)</t>
-  </si>
-  <si>
     <t>Michigan State</t>
   </si>
   <si>
@@ -601,9 +535,6 @@
     <t>Middle Tennessee</t>
   </si>
   <si>
-    <t>Milwaukee</t>
-  </si>
-  <si>
     <t>Minnesota</t>
   </si>
   <si>
@@ -613,9 +544,6 @@
     <t>Mississippi Valley State</t>
   </si>
   <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
     <t>Missouri-Kansas City</t>
   </si>
   <si>
@@ -640,9 +568,6 @@
     <t>Morgan State</t>
   </si>
   <si>
-    <t>Mount St. Mary's</t>
-  </si>
-  <si>
     <t>Murray State</t>
   </si>
   <si>
@@ -655,9 +580,6 @@
     <t>Nebraska</t>
   </si>
   <si>
-    <t>Nevada-Las Vegas</t>
-  </si>
-  <si>
     <t>Nevada</t>
   </si>
   <si>
@@ -679,30 +601,15 @@
     <t>Nicholls State</t>
   </si>
   <si>
-    <t>NJIT</t>
-  </si>
-  <si>
     <t>Norfolk State</t>
   </si>
   <si>
-    <t>North Carolina-Asheville</t>
-  </si>
-  <si>
-    <t>North Carolina A&amp;amp;T</t>
-  </si>
-  <si>
     <t>North Carolina Central</t>
   </si>
   <si>
-    <t>North Carolina-Greensboro</t>
-  </si>
-  <si>
     <t>North Carolina State</t>
   </si>
   <si>
-    <t>North Carolina-Wilmington</t>
-  </si>
-  <si>
     <t>North Carolina</t>
   </si>
   <si>
@@ -793,12 +700,6 @@
     <t>Portland</t>
   </si>
   <si>
-    <t>Prairie View</t>
-  </si>
-  <si>
-    <t>Presbyterian</t>
-  </si>
-  <si>
     <t>Princeton</t>
   </si>
   <si>
@@ -847,9 +748,6 @@
     <t>Saint Louis</t>
   </si>
   <si>
-    <t>Saint Mary's (CA)</t>
-  </si>
-  <si>
     <t>Saint Peter's</t>
   </si>
   <si>
@@ -877,9 +775,6 @@
     <t>Savannah State</t>
   </si>
   <si>
-    <t>Seattle</t>
-  </si>
-  <si>
     <t>Seton Hall</t>
   </si>
   <si>
@@ -913,36 +808,18 @@
     <t>Southeastern Louisiana</t>
   </si>
   <si>
-    <t>Southern California</t>
-  </si>
-  <si>
     <t>SIU Edwardsville</t>
   </si>
   <si>
     <t>Southern Illinois</t>
   </si>
   <si>
-    <t>Southern Methodist</t>
-  </si>
-  <si>
-    <t>Southern Mississippi</t>
-  </si>
-  <si>
     <t>Southern Utah</t>
   </si>
   <si>
     <t>Southern</t>
   </si>
   <si>
-    <t>St. Bonaventure</t>
-  </si>
-  <si>
-    <t>St. Francis (NY)</t>
-  </si>
-  <si>
-    <t>St. John's (NY)</t>
-  </si>
-  <si>
     <t>Stanford</t>
   </si>
   <si>
@@ -982,12 +859,6 @@
     <t>Texas-Arlington</t>
   </si>
   <si>
-    <t>Texas Christian</t>
-  </si>
-  <si>
-    <t>Texas-El Paso</t>
-  </si>
-  <si>
     <t>Texas-Pan American</t>
   </si>
   <si>
@@ -1118,6 +989,141 @@
   </si>
   <si>
     <t>PP100 Poss.</t>
+  </si>
+  <si>
+    <t>Southern Miss</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>Saint Mary's College</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>Saint John's</t>
+  </si>
+  <si>
+    <t>Saint Bonaventure</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>UC Santa Barbara</t>
+  </si>
+  <si>
+    <t>UNLV</t>
+  </si>
+  <si>
+    <t>UC Irvine</t>
+  </si>
+  <si>
+    <t>UTEP</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Wisconsin-Milwaukee</t>
+  </si>
+  <si>
+    <t>UAB</t>
+  </si>
+  <si>
+    <t>Miami-Ohio</t>
+  </si>
+  <si>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Loyola-Marymount</t>
+  </si>
+  <si>
+    <t>Saint Francis (NY)</t>
+  </si>
+  <si>
+    <t>Mount Saint Mary's</t>
+  </si>
+  <si>
+    <t>Bowling Green</t>
+  </si>
+  <si>
+    <t>UNC Asheville</t>
+  </si>
+  <si>
+    <t>FIU</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>ULM</t>
+  </si>
+  <si>
+    <t>Seattle University</t>
+  </si>
+  <si>
+    <t>Loyola-Maryland</t>
+  </si>
+  <si>
+    <t>UNC Wilmington</t>
+  </si>
+  <si>
+    <t>Central Connecticut</t>
+  </si>
+  <si>
+    <t>Loyola-Chicago</t>
+  </si>
+  <si>
+    <t>Long Island</t>
+  </si>
+  <si>
+    <t>UNC Greensboro</t>
+  </si>
+  <si>
+    <t>Prairie View A&amp;M</t>
+  </si>
+  <si>
+    <t>New Jersey Tech</t>
+  </si>
+  <si>
+    <t>UC Riverside</t>
+  </si>
+  <si>
+    <t>UC Davis</t>
+  </si>
+  <si>
+    <t>North Carolina A&amp;T</t>
+  </si>
+  <si>
+    <t>Maryland Eastern Shore</t>
+  </si>
+  <si>
+    <t>Presbyterian College</t>
+  </si>
+  <si>
+    <t>RPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1132,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1637,7 +1643,7 @@
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1985,7 +1991,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q352"/>
+  <dimension ref="A1:R352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1997,62 +2003,65 @@
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="B2" s="5">
         <v>31</v>
@@ -2102,10 +2111,13 @@
       <c r="Q2" s="2">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5">
         <v>30</v>
@@ -2155,10 +2167,13 @@
       <c r="Q3" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5">
         <v>34</v>
@@ -2208,10 +2223,13 @@
       <c r="Q4" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5">
         <v>30</v>
@@ -2261,10 +2279,13 @@
       <c r="Q5" s="2">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" s="2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="B6" s="5">
         <v>31</v>
@@ -2314,10 +2335,13 @@
       <c r="Q6" s="2">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5">
         <v>32</v>
@@ -2367,10 +2391,13 @@
       <c r="Q7" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5">
         <v>32</v>
@@ -2420,10 +2447,13 @@
       <c r="Q8" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>341</v>
       </c>
       <c r="B9" s="5">
         <v>34</v>
@@ -2473,10 +2503,13 @@
       <c r="Q9" s="2">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5">
         <v>31</v>
@@ -2526,10 +2559,13 @@
       <c r="Q10" s="2">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5">
         <v>33</v>
@@ -2579,10 +2615,13 @@
       <c r="Q11" s="2">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5">
         <v>30</v>
@@ -2632,10 +2671,13 @@
       <c r="Q12" s="2">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5">
         <v>33</v>
@@ -2685,10 +2727,13 @@
       <c r="Q13" s="2">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="5">
         <v>38</v>
@@ -2738,10 +2783,13 @@
       <c r="Q14" s="2">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B15" s="5">
         <v>32</v>
@@ -2791,10 +2839,13 @@
       <c r="Q15" s="2">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" s="5">
         <v>31</v>
@@ -2844,10 +2895,13 @@
       <c r="Q16" s="2">
         <v>20.100000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5">
         <v>32</v>
@@ -2897,10 +2951,13 @@
       <c r="Q17" s="2">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B18" s="5">
         <v>34</v>
@@ -2950,10 +3007,13 @@
       <c r="Q18" s="2">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B19" s="5">
         <v>31</v>
@@ -3003,10 +3063,13 @@
       <c r="Q19" s="2">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B20" s="5">
         <v>30</v>
@@ -3056,10 +3119,13 @@
       <c r="Q20" s="2">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B21" s="5">
         <v>30</v>
@@ -3109,10 +3175,13 @@
       <c r="Q21" s="2">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B22" s="5">
         <v>30</v>
@@ -3162,10 +3231,13 @@
       <c r="Q22" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B23" s="5">
         <v>38</v>
@@ -3215,10 +3287,13 @@
       <c r="Q23" s="2">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B24" s="5">
         <v>36</v>
@@ -3268,10 +3343,13 @@
       <c r="Q24" s="2">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B25" s="5">
         <v>32</v>
@@ -3321,10 +3399,13 @@
       <c r="Q25" s="2">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B26" s="5">
         <v>30</v>
@@ -3374,10 +3455,13 @@
       <c r="Q26" s="2">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B27" s="5">
         <v>34</v>
@@ -3427,10 +3511,13 @@
       <c r="Q27" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B28" s="5">
         <v>32</v>
@@ -3480,10 +3567,13 @@
       <c r="Q28" s="2">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B29" s="5">
         <v>35</v>
@@ -3533,10 +3623,13 @@
       <c r="Q29" s="2">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>346</v>
       </c>
       <c r="B30" s="5">
         <v>32</v>
@@ -3586,10 +3679,13 @@
       <c r="Q30" s="2">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B31" s="5">
         <v>32</v>
@@ -3639,10 +3735,13 @@
       <c r="Q31" s="2">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>326</v>
       </c>
       <c r="B32" s="5">
         <v>35</v>
@@ -3692,10 +3791,13 @@
       <c r="Q32" s="2">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B33" s="5">
         <v>29</v>
@@ -3745,10 +3847,13 @@
       <c r="Q33" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B34" s="5">
         <v>32</v>
@@ -3798,10 +3903,13 @@
       <c r="Q34" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B35" s="5">
         <v>30</v>
@@ -3851,10 +3959,13 @@
       <c r="Q35" s="2">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B36" s="5">
         <v>29</v>
@@ -3904,10 +4015,13 @@
       <c r="Q36" s="2">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R36" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B37" s="5">
         <v>31</v>
@@ -3957,10 +4071,13 @@
       <c r="Q37" s="2">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R37" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B38" s="5">
         <v>34</v>
@@ -4010,10 +4127,13 @@
       <c r="Q38" s="2">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B39" s="5">
         <v>32</v>
@@ -4063,10 +4183,13 @@
       <c r="Q39" s="2">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B40" s="5">
         <v>31</v>
@@ -4116,10 +4239,13 @@
       <c r="Q40" s="2">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B41" s="5">
         <v>35</v>
@@ -4169,10 +4295,13 @@
       <c r="Q41" s="2">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>363</v>
       </c>
       <c r="B42" s="5">
         <v>31</v>
@@ -4222,10 +4351,13 @@
       <c r="Q42" s="2">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>335</v>
       </c>
       <c r="B43" s="5">
         <v>35</v>
@@ -4275,10 +4407,13 @@
       <c r="Q43" s="2">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>362</v>
       </c>
       <c r="B44" s="5">
         <v>31</v>
@@ -4328,10 +4463,13 @@
       <c r="Q44" s="2">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>333</v>
       </c>
       <c r="B45" s="5">
         <v>30</v>
@@ -4381,10 +4519,13 @@
       <c r="Q45" s="2">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B46" s="5">
         <v>35</v>
@@ -4434,10 +4575,13 @@
       <c r="Q46" s="2">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B47" s="5">
         <v>32</v>
@@ -4487,10 +4631,13 @@
       <c r="Q47" s="2">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B48" s="5">
         <v>33</v>
@@ -4540,10 +4687,13 @@
       <c r="Q48" s="2">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B49" s="5">
         <v>29</v>
@@ -4593,10 +4743,13 @@
       <c r="Q49" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>64</v>
+        <v>356</v>
       </c>
       <c r="B50" s="5">
         <v>30</v>
@@ -4646,10 +4799,13 @@
       <c r="Q50" s="2">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>65</v>
+        <v>349</v>
       </c>
       <c r="B51" s="5">
         <v>31</v>
@@ -4699,10 +4855,13 @@
       <c r="Q51" s="2">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B52" s="5">
         <v>31</v>
@@ -4752,10 +4911,13 @@
       <c r="Q52" s="2">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B53" s="5">
         <v>31</v>
@@ -4805,10 +4967,13 @@
       <c r="Q53" s="2">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B54" s="5">
         <v>31</v>
@@ -4858,10 +5023,13 @@
       <c r="Q54" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B55" s="5">
         <v>33</v>
@@ -4911,10 +5079,13 @@
       <c r="Q55" s="2">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B56" s="5">
         <v>32</v>
@@ -4964,10 +5135,13 @@
       <c r="Q56" s="2">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B57" s="5">
         <v>34</v>
@@ -5017,10 +5191,13 @@
       <c r="Q57" s="2">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B58" s="5">
         <v>33</v>
@@ -5070,10 +5247,13 @@
       <c r="Q58" s="2">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B59" s="5">
         <v>36</v>
@@ -5123,10 +5303,13 @@
       <c r="Q59" s="2">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B60" s="5">
         <v>33</v>
@@ -5176,10 +5359,13 @@
       <c r="Q60" s="2">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B61" s="5">
         <v>34</v>
@@ -5229,10 +5415,13 @@
       <c r="Q61" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B62" s="5">
         <v>31</v>
@@ -5282,10 +5471,13 @@
       <c r="Q62" s="2">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B63" s="5">
         <v>32</v>
@@ -5335,10 +5527,13 @@
       <c r="Q63" s="2">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B64" s="5">
         <v>32</v>
@@ -5388,10 +5583,13 @@
       <c r="Q64" s="2">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B65" s="5">
         <v>35</v>
@@ -5441,10 +5639,13 @@
       <c r="Q65" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B66" s="5">
         <v>34</v>
@@ -5494,10 +5695,13 @@
       <c r="Q66" s="2">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B67" s="5">
         <v>40</v>
@@ -5547,10 +5751,13 @@
       <c r="Q67" s="2">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B68" s="5">
         <v>32</v>
@@ -5600,10 +5807,13 @@
       <c r="Q68" s="2">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B69" s="5">
         <v>28</v>
@@ -5653,10 +5863,13 @@
       <c r="Q69" s="2">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B70" s="5">
         <v>35</v>
@@ -5706,10 +5919,13 @@
       <c r="Q70" s="2">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B71" s="5">
         <v>28</v>
@@ -5759,10 +5975,13 @@
       <c r="Q71" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B72" s="5">
         <v>33</v>
@@ -5812,10 +6031,13 @@
       <c r="Q72" s="2">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B73" s="5">
         <v>37</v>
@@ -5865,10 +6087,13 @@
       <c r="Q73" s="2">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B74" s="5">
         <v>30</v>
@@ -5918,10 +6143,13 @@
       <c r="Q74" s="2">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B75" s="5">
         <v>35</v>
@@ -5971,10 +6199,13 @@
       <c r="Q75" s="2">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B76" s="5">
         <v>31</v>
@@ -6024,10 +6255,13 @@
       <c r="Q76" s="2">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B77" s="5">
         <v>33</v>
@@ -6077,10 +6311,13 @@
       <c r="Q77" s="2">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>351</v>
       </c>
       <c r="B78" s="5">
         <v>32</v>
@@ -6130,10 +6367,13 @@
       <c r="Q78" s="2">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R78" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B79" s="5">
         <v>31</v>
@@ -6183,10 +6423,13 @@
       <c r="Q79" s="2">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R79" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B80" s="5">
         <v>30</v>
@@ -6236,10 +6479,13 @@
       <c r="Q80" s="2">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B81" s="5">
         <v>35</v>
@@ -6289,10 +6535,13 @@
       <c r="Q81" s="2">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B82" s="5">
         <v>30</v>
@@ -6342,10 +6591,13 @@
       <c r="Q82" s="2">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B83" s="5">
         <v>34</v>
@@ -6395,10 +6647,13 @@
       <c r="Q83" s="2">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B84" s="5">
         <v>35</v>
@@ -6448,10 +6703,13 @@
       <c r="Q84" s="2">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B85" s="5">
         <v>30</v>
@@ -6501,10 +6759,13 @@
       <c r="Q85" s="2">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B86" s="5">
         <v>34</v>
@@ -6554,10 +6815,13 @@
       <c r="Q86" s="2">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B87" s="5">
         <v>37</v>
@@ -6607,10 +6871,13 @@
       <c r="Q87" s="2">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B88" s="5">
         <v>31</v>
@@ -6660,10 +6927,13 @@
       <c r="Q88" s="2">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B89" s="5">
         <v>32</v>
@@ -6713,10 +6983,13 @@
       <c r="Q89" s="2">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B90" s="5">
         <v>33</v>
@@ -6766,10 +7039,13 @@
       <c r="Q90" s="2">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B91" s="5">
         <v>32</v>
@@ -6819,10 +7095,13 @@
       <c r="Q91" s="2">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B92" s="5">
         <v>31</v>
@@ -6872,10 +7151,13 @@
       <c r="Q92" s="2">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B93" s="5">
         <v>32</v>
@@ -6925,10 +7207,13 @@
       <c r="Q93" s="2">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B94" s="5">
         <v>32</v>
@@ -6978,10 +7263,13 @@
       <c r="Q94" s="2">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B95" s="5">
         <v>35</v>
@@ -7031,10 +7319,13 @@
       <c r="Q95" s="2">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>348</v>
       </c>
       <c r="B96" s="5">
         <v>31</v>
@@ -7084,10 +7375,13 @@
       <c r="Q96" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B97" s="5">
         <v>36</v>
@@ -7137,10 +7431,13 @@
       <c r="Q97" s="2">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B98" s="5">
         <v>39</v>
@@ -7190,10 +7487,13 @@
       <c r="Q98" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B99" s="5">
         <v>31</v>
@@ -7243,10 +7543,13 @@
       <c r="Q99" s="2">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B100" s="5">
         <v>39</v>
@@ -7296,10 +7599,13 @@
       <c r="Q100" s="2">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B101" s="5">
         <v>30</v>
@@ -7349,10 +7655,13 @@
       <c r="Q101" s="2">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B102" s="5">
         <v>33</v>
@@ -7402,10 +7711,13 @@
       <c r="Q102" s="2">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R102" s="2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B103" s="5">
         <v>31</v>
@@ -7455,10 +7767,13 @@
       <c r="Q103" s="2">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R103" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B104" s="5">
         <v>33</v>
@@ -7508,10 +7823,13 @@
       <c r="Q104" s="2">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R104" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B105" s="5">
         <v>33</v>
@@ -7561,10 +7879,13 @@
       <c r="Q105" s="2">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R105" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B106" s="5">
         <v>34</v>
@@ -7614,10 +7935,13 @@
       <c r="Q106" s="2">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R106" s="2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B107" s="5">
         <v>34</v>
@@ -7667,10 +7991,13 @@
       <c r="Q107" s="2">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R107" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B108" s="5">
         <v>33</v>
@@ -7720,10 +8047,13 @@
       <c r="Q108" s="2">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R108" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B109" s="5">
         <v>34</v>
@@ -7773,10 +8103,13 @@
       <c r="Q109" s="2">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R109" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B110" s="5">
         <v>36</v>
@@ -7826,10 +8159,13 @@
       <c r="Q110" s="2">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R110" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B111" s="5">
         <v>29</v>
@@ -7879,10 +8215,13 @@
       <c r="Q111" s="2">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R111" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B112" s="5">
         <v>30</v>
@@ -7932,10 +8271,13 @@
       <c r="Q112" s="2">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R112" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B113" s="5">
         <v>31</v>
@@ -7985,10 +8327,13 @@
       <c r="Q113" s="2">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R113" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B114" s="5">
         <v>31</v>
@@ -8038,10 +8383,13 @@
       <c r="Q114" s="2">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R114" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B115" s="5">
         <v>33</v>
@@ -8091,10 +8439,13 @@
       <c r="Q115" s="2">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R115" s="2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B116" s="5">
         <v>32</v>
@@ -8144,10 +8495,13 @@
       <c r="Q116" s="2">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R116" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B117" s="5">
         <v>31</v>
@@ -8197,10 +8551,13 @@
       <c r="Q117" s="2">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R117" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B118" s="5">
         <v>31</v>
@@ -8250,10 +8607,13 @@
       <c r="Q118" s="2">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R118" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B119" s="5">
         <v>33</v>
@@ -8303,10 +8663,13 @@
       <c r="Q119" s="2">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R119" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B120" s="5">
         <v>34</v>
@@ -8356,10 +8719,13 @@
       <c r="Q120" s="2">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R120" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B121" s="5">
         <v>31</v>
@@ -8409,10 +8775,13 @@
       <c r="Q121" s="2">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R121" s="2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B122" s="5">
         <v>33</v>
@@ -8462,10 +8831,13 @@
       <c r="Q122" s="2">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R122" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B123" s="5">
         <v>33</v>
@@ -8515,10 +8887,13 @@
       <c r="Q123" s="2">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R123" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B124" s="5">
         <v>29</v>
@@ -8568,10 +8943,13 @@
       <c r="Q124" s="2">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R124" s="2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B125" s="5">
         <v>34</v>
@@ -8621,10 +8999,13 @@
       <c r="Q125" s="2">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R125" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B126" s="5">
         <v>31</v>
@@ -8674,10 +9055,13 @@
       <c r="Q126" s="2">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R126" s="2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B127" s="5">
         <v>34</v>
@@ -8727,10 +9111,13 @@
       <c r="Q127" s="2">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R127" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B128" s="5">
         <v>35</v>
@@ -8780,10 +9167,13 @@
       <c r="Q128" s="2">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R128" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B129" s="5">
         <v>27</v>
@@ -8833,10 +9223,13 @@
       <c r="Q129" s="2">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R129" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B130" s="5">
         <v>34</v>
@@ -8886,10 +9279,13 @@
       <c r="Q130" s="2">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R130" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B131" s="5">
         <v>32</v>
@@ -8939,10 +9335,13 @@
       <c r="Q131" s="2">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R131" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B132" s="5">
         <v>33</v>
@@ -8992,10 +9391,13 @@
       <c r="Q132" s="2">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R132" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B133" s="5">
         <v>36</v>
@@ -9045,10 +9447,13 @@
       <c r="Q133" s="2">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R133" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B134" s="5">
         <v>33</v>
@@ -9098,10 +9503,13 @@
       <c r="Q134" s="2">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R134" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B135" s="5">
         <v>35</v>
@@ -9151,10 +9559,13 @@
       <c r="Q135" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R135" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B136" s="5">
         <v>32</v>
@@ -9204,10 +9615,13 @@
       <c r="Q136" s="2">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R136" s="2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B137" s="5">
         <v>31</v>
@@ -9257,10 +9671,13 @@
       <c r="Q137" s="2">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R137" s="2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B138" s="5">
         <v>31</v>
@@ -9310,10 +9727,13 @@
       <c r="Q138" s="2">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R138" s="2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B139" s="5">
         <v>30</v>
@@ -9363,10 +9783,13 @@
       <c r="Q139" s="2">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R139" s="2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B140" s="5">
         <v>31</v>
@@ -9416,10 +9839,13 @@
       <c r="Q140" s="2">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R140" s="2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B141" s="5">
         <v>33</v>
@@ -9469,10 +9895,13 @@
       <c r="Q141" s="2">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R141" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B142" s="5">
         <v>35</v>
@@ -9522,10 +9951,13 @@
       <c r="Q142" s="2">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R142" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B143" s="5">
         <v>31</v>
@@ -9575,10 +10007,13 @@
       <c r="Q143" s="2">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R143" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B144" s="5">
         <v>32</v>
@@ -9628,10 +10063,13 @@
       <c r="Q144" s="2">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R144" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B145" s="5">
         <v>40</v>
@@ -9681,10 +10119,13 @@
       <c r="Q145" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R145" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B146" s="5">
         <v>31</v>
@@ -9734,10 +10175,13 @@
       <c r="Q146" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R146" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B147" s="5">
         <v>31</v>
@@ -9787,10 +10231,13 @@
       <c r="Q147" s="2">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R147" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B148" s="5">
         <v>30</v>
@@ -9840,10 +10287,13 @@
       <c r="Q148" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R148" s="2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B149" s="5">
         <v>32</v>
@@ -9893,10 +10343,13 @@
       <c r="Q149" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R149" s="2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B150" s="5">
         <v>32</v>
@@ -9946,10 +10399,13 @@
       <c r="Q150" s="2">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R150" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B151" s="5">
         <v>30</v>
@@ -9999,10 +10455,13 @@
       <c r="Q151" s="2">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R151" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B152" s="5">
         <v>32</v>
@@ -10052,10 +10511,13 @@
       <c r="Q152" s="2">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R152" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>167</v>
+        <v>358</v>
       </c>
       <c r="B153" s="5">
         <v>29</v>
@@ -10105,10 +10567,13 @@
       <c r="Q153" s="2">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R153" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B154" s="5">
         <v>32</v>
@@ -10158,10 +10623,13 @@
       <c r="Q154" s="2">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R154" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B155" s="5">
         <v>35</v>
@@ -10211,10 +10679,13 @@
       <c r="Q155" s="2">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R155" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>170</v>
+        <v>352</v>
       </c>
       <c r="B156" s="5">
         <v>27</v>
@@ -10264,10 +10735,13 @@
       <c r="Q156" s="2">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R156" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>171</v>
+        <v>329</v>
       </c>
       <c r="B157" s="5">
         <v>34</v>
@@ -10317,10 +10791,13 @@
       <c r="Q157" s="2">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R157" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B158" s="5">
         <v>37</v>
@@ -10370,10 +10847,13 @@
       <c r="Q158" s="2">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R158" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B159" s="5">
         <v>37</v>
@@ -10423,10 +10903,13 @@
       <c r="Q159" s="2">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R159" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>174</v>
+        <v>357</v>
       </c>
       <c r="B160" s="5">
         <v>32</v>
@@ -10476,10 +10959,13 @@
       <c r="Q160" s="2">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R160" s="2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>175</v>
+        <v>343</v>
       </c>
       <c r="B161" s="5">
         <v>32</v>
@@ -10529,10 +11015,13 @@
       <c r="Q161" s="2">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R161" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>176</v>
+        <v>354</v>
       </c>
       <c r="B162" s="5">
         <v>30</v>
@@ -10582,10 +11071,13 @@
       <c r="Q162" s="2">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R162" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B163" s="5">
         <v>29</v>
@@ -10635,10 +11127,13 @@
       <c r="Q163" s="2">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R163" s="2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B164" s="5">
         <v>33</v>
@@ -10688,10 +11183,13 @@
       <c r="Q164" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R164" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B165" s="5">
         <v>31</v>
@@ -10741,10 +11239,13 @@
       <c r="Q165" s="2">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R165" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B166" s="5">
         <v>32</v>
@@ -10794,10 +11295,13 @@
       <c r="Q166" s="2">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R166" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="B167" s="5">
         <v>33</v>
@@ -10847,10 +11351,13 @@
       <c r="Q167" s="2">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R167" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B168" s="5">
         <v>30</v>
@@ -10900,10 +11407,13 @@
       <c r="Q168" s="2">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R168" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>183</v>
+        <v>365</v>
       </c>
       <c r="B169" s="5">
         <v>30</v>
@@ -10953,10 +11463,13 @@
       <c r="Q169" s="2">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R169" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B170" s="5">
         <v>32</v>
@@ -11006,10 +11519,13 @@
       <c r="Q170" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R170" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="B171" s="5">
         <v>28</v>
@@ -11059,10 +11575,13 @@
       <c r="Q171" s="2">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R171" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B172" s="5">
         <v>33</v>
@@ -11112,10 +11631,13 @@
       <c r="Q172" s="2">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R172" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B173" s="5">
         <v>31</v>
@@ -11165,10 +11687,13 @@
       <c r="Q173" s="2">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R173" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="B174" s="5">
         <v>34</v>
@@ -11218,10 +11743,13 @@
       <c r="Q174" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R174" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B175" s="5">
         <v>36</v>
@@ -11271,10 +11799,13 @@
       <c r="Q175" s="2">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R175" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>190</v>
+        <v>337</v>
       </c>
       <c r="B176" s="5">
         <v>33</v>
@@ -11324,10 +11855,13 @@
       <c r="Q176" s="2">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R176" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>191</v>
+        <v>340</v>
       </c>
       <c r="B177" s="5">
         <v>31</v>
@@ -11377,10 +11911,13 @@
       <c r="Q177" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R177" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="B178" s="5">
         <v>38</v>
@@ -11430,10 +11967,13 @@
       <c r="Q178" s="2">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R178" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="B179" s="5">
         <v>37</v>
@@ -11483,10 +12023,13 @@
       <c r="Q179" s="2">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R179" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="B180" s="5">
         <v>33</v>
@@ -11536,10 +12079,13 @@
       <c r="Q180" s="2">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R180" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>195</v>
+        <v>338</v>
       </c>
       <c r="B181" s="5">
         <v>35</v>
@@ -11589,10 +12135,13 @@
       <c r="Q181" s="2">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R181" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B182" s="5">
         <v>38</v>
@@ -11642,10 +12191,13 @@
       <c r="Q182" s="2">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R182" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="B183" s="5">
         <v>33</v>
@@ -11695,10 +12247,13 @@
       <c r="Q183" s="2">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R183" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="B184" s="5">
         <v>32</v>
@@ -11748,10 +12303,13 @@
       <c r="Q184" s="2">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R184" s="2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>199</v>
+        <v>332</v>
       </c>
       <c r="B185" s="5">
         <v>33</v>
@@ -11801,10 +12359,13 @@
       <c r="Q185" s="2">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R185" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="B186" s="5">
         <v>30</v>
@@ -11854,10 +12415,13 @@
       <c r="Q186" s="2">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R186" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="B187" s="5">
         <v>33</v>
@@ -11907,10 +12471,13 @@
       <c r="Q187" s="2">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R187" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="B188" s="5">
         <v>35</v>
@@ -11960,10 +12527,13 @@
       <c r="Q188" s="2">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R188" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="B189" s="5">
         <v>32</v>
@@ -12013,10 +12583,13 @@
       <c r="Q189" s="2">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R189" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B190" s="5">
         <v>31</v>
@@ -12066,10 +12639,13 @@
       <c r="Q190" s="2">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R190" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="B191" s="5">
         <v>30</v>
@@ -12119,10 +12695,13 @@
       <c r="Q191" s="2">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R191" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="B192" s="5">
         <v>34</v>
@@ -12172,10 +12751,13 @@
       <c r="Q192" s="2">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R192" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="B193" s="5">
         <v>31</v>
@@ -12225,10 +12807,13 @@
       <c r="Q193" s="2">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R193" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>208</v>
+        <v>345</v>
       </c>
       <c r="B194" s="5">
         <v>33</v>
@@ -12278,10 +12863,13 @@
       <c r="Q194" s="2">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R194" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="B195" s="5">
         <v>34</v>
@@ -12331,10 +12919,13 @@
       <c r="Q195" s="2">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R195" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="B196" s="5">
         <v>30</v>
@@ -12384,10 +12975,13 @@
       <c r="Q196" s="2">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R196" s="2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="B197" s="5">
         <v>32</v>
@@ -12437,10 +13031,13 @@
       <c r="Q197" s="2">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R197" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="B198" s="5">
         <v>32</v>
@@ -12490,10 +13087,13 @@
       <c r="Q198" s="2">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R198" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>213</v>
+        <v>334</v>
       </c>
       <c r="B199" s="5">
         <v>33</v>
@@ -12543,10 +13143,13 @@
       <c r="Q199" s="2">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R199" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="B200" s="5">
         <v>32</v>
@@ -12596,10 +13199,13 @@
       <c r="Q200" s="2">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R200" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="B201" s="5">
         <v>30</v>
@@ -12649,10 +13255,13 @@
       <c r="Q201" s="2">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R201" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="B202" s="5">
         <v>36</v>
@@ -12702,10 +13311,13 @@
       <c r="Q202" s="2">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R202" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B203" s="5">
         <v>34</v>
@@ -12755,10 +13367,13 @@
       <c r="Q203" s="2">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R203" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="B204" s="5">
         <v>26</v>
@@ -12808,10 +13423,13 @@
       <c r="Q204" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R204" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="B205" s="5">
         <v>33</v>
@@ -12861,10 +13479,13 @@
       <c r="Q205" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R205" s="2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="B206" s="5">
         <v>29</v>
@@ -12914,10 +13535,13 @@
       <c r="Q206" s="2">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R206" s="2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>221</v>
+        <v>361</v>
       </c>
       <c r="B207" s="5">
         <v>29</v>
@@ -12967,10 +13591,13 @@
       <c r="Q207" s="2">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R207" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="B208" s="5">
         <v>34</v>
@@ -13020,10 +13647,13 @@
       <c r="Q208" s="2">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R208" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>223</v>
+        <v>347</v>
       </c>
       <c r="B209" s="5">
         <v>32</v>
@@ -13073,10 +13703,13 @@
       <c r="Q209" s="2">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R209" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>224</v>
+        <v>364</v>
       </c>
       <c r="B210" s="5">
         <v>32</v>
@@ -13126,10 +13759,13 @@
       <c r="Q210" s="2">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R210" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="B211" s="5">
         <v>34</v>
@@ -13179,10 +13815,13 @@
       <c r="Q211" s="2">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R211" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>226</v>
+        <v>359</v>
       </c>
       <c r="B212" s="5">
         <v>32</v>
@@ -13232,10 +13871,13 @@
       <c r="Q212" s="2">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R212" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="B213" s="5">
         <v>36</v>
@@ -13285,10 +13927,13 @@
       <c r="Q213" s="2">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R213" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>228</v>
+        <v>355</v>
       </c>
       <c r="B214" s="5">
         <v>32</v>
@@ -13338,10 +13983,13 @@
       <c r="Q214" s="2">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R214" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="B215" s="5">
         <v>34</v>
@@ -13391,10 +14039,13 @@
       <c r="Q215" s="2">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R215" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="B216" s="5">
         <v>33</v>
@@ -13444,10 +14095,13 @@
       <c r="Q216" s="2">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R216" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="B217" s="5">
         <v>34</v>
@@ -13497,10 +14151,13 @@
       <c r="Q217" s="2">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R217" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="B218" s="5">
         <v>32</v>
@@ -13550,10 +14207,13 @@
       <c r="Q218" s="2">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R218" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="B219" s="5">
         <v>32</v>
@@ -13603,10 +14263,13 @@
       <c r="Q219" s="2">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R219" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="B220" s="5">
         <v>32</v>
@@ -13656,10 +14319,13 @@
       <c r="Q220" s="2">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R220" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="B221" s="5">
         <v>32</v>
@@ -13709,10 +14375,13 @@
       <c r="Q221" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R221" s="2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="B222" s="5">
         <v>32</v>
@@ -13762,10 +14431,13 @@
       <c r="Q222" s="2">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R222" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="B223" s="5">
         <v>32</v>
@@ -13815,10 +14487,13 @@
       <c r="Q223" s="2">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R223" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="B224" s="5">
         <v>31</v>
@@ -13868,10 +14543,13 @@
       <c r="Q224" s="2">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R224" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="B225" s="5">
         <v>30</v>
@@ -13921,10 +14599,13 @@
       <c r="Q225" s="2">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R225" s="2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="B226" s="5">
         <v>31</v>
@@ -13974,10 +14655,13 @@
       <c r="Q226" s="2">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R226" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="B227" s="5">
         <v>33</v>
@@ -14027,10 +14711,13 @@
       <c r="Q227" s="2">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R227" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="B228" s="5">
         <v>32</v>
@@ -14080,10 +14767,13 @@
       <c r="Q228" s="2">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R228" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="B229" s="5">
         <v>33</v>
@@ -14133,10 +14823,13 @@
       <c r="Q229" s="2">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R229" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="B230" s="5">
         <v>35</v>
@@ -14186,10 +14879,13 @@
       <c r="Q230" s="2">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R230" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="B231" s="5">
         <v>36</v>
@@ -14239,10 +14935,13 @@
       <c r="Q231" s="2">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R231" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="B232" s="5">
         <v>34</v>
@@ -14292,10 +14991,13 @@
       <c r="Q232" s="2">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R232" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="B233" s="5">
         <v>33</v>
@@ -14345,10 +15047,13 @@
       <c r="Q233" s="2">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R233" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="B234" s="5">
         <v>36</v>
@@ -14398,10 +15103,13 @@
       <c r="Q234" s="2">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R234" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="B235" s="5">
         <v>33</v>
@@ -14451,10 +15159,13 @@
       <c r="Q235" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R235" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="B236" s="5">
         <v>32</v>
@@ -14504,10 +15215,13 @@
       <c r="Q236" s="2">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R236" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="B237" s="5">
         <v>34</v>
@@ -14557,10 +15271,13 @@
       <c r="Q237" s="2">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R237" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="B238" s="5">
         <v>34</v>
@@ -14610,10 +15327,13 @@
       <c r="Q238" s="2">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R238" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="B239" s="5">
         <v>34</v>
@@ -14663,10 +15383,13 @@
       <c r="Q239" s="2">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R239" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="B240" s="5">
         <v>28</v>
@@ -14716,10 +15439,13 @@
       <c r="Q240" s="2">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R240" s="2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="B241" s="5">
         <v>31</v>
@@ -14769,10 +15495,13 @@
       <c r="Q241" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R241" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="B242" s="5">
         <v>36</v>
@@ -14822,10 +15551,13 @@
       <c r="Q242" s="2">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R242" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="B243" s="5">
         <v>32</v>
@@ -14875,10 +15607,13 @@
       <c r="Q243" s="2">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R243" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B244" s="5">
         <v>31</v>
@@ -14928,10 +15663,13 @@
       <c r="Q244" s="2">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R244" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>259</v>
+        <v>360</v>
       </c>
       <c r="B245" s="5">
         <v>34</v>
@@ -14981,10 +15719,13 @@
       <c r="Q245" s="2">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R245" s="2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>260</v>
+        <v>366</v>
       </c>
       <c r="B246" s="5">
         <v>32</v>
@@ -15034,10 +15775,13 @@
       <c r="Q246" s="2">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R246" s="2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="B247" s="5">
         <v>30</v>
@@ -15087,10 +15831,13 @@
       <c r="Q247" s="2">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R247" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="B248" s="5">
         <v>35</v>
@@ -15140,10 +15887,13 @@
       <c r="Q248" s="2">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R248" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="B249" s="5">
         <v>32</v>
@@ -15193,10 +15943,13 @@
       <c r="Q249" s="2">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R249" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="B250" s="5">
         <v>32</v>
@@ -15246,10 +15999,13 @@
       <c r="Q250" s="2">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R250" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="B251" s="5">
         <v>35</v>
@@ -15299,10 +16055,13 @@
       <c r="Q251" s="2">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R251" s="2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="B252" s="5">
         <v>32</v>
@@ -15352,10 +16111,13 @@
       <c r="Q252" s="2">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R252" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="B253" s="5">
         <v>30</v>
@@ -15405,10 +16167,13 @@
       <c r="Q253" s="2">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R253" s="2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="B254" s="5">
         <v>33</v>
@@ -15458,10 +16223,13 @@
       <c r="Q254" s="2">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R254" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="B255" s="5">
         <v>31</v>
@@ -15511,10 +16279,13 @@
       <c r="Q255" s="2">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R255" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="B256" s="5">
         <v>36</v>
@@ -15564,10 +16335,13 @@
       <c r="Q256" s="2">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R256" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B257" s="5">
         <v>33</v>
@@ -15617,10 +16391,13 @@
       <c r="Q257" s="2">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R257" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="B258" s="5">
         <v>30</v>
@@ -15670,10 +16447,13 @@
       <c r="Q258" s="2">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R258" s="2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="B259" s="5">
         <v>31</v>
@@ -15723,10 +16503,13 @@
       <c r="Q259" s="2">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R259" s="2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="B260" s="5">
         <v>31</v>
@@ -15776,10 +16559,13 @@
       <c r="Q260" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R260" s="2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="B261" s="5">
         <v>34</v>
@@ -15829,10 +16615,13 @@
       <c r="Q261" s="2">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R261" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="B262" s="5">
         <v>34</v>
@@ -15882,10 +16671,13 @@
       <c r="Q262" s="2">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R262" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="B263" s="5">
         <v>35</v>
@@ -15935,10 +16727,13 @@
       <c r="Q263" s="2">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R263" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="B264" s="5">
         <v>31</v>
@@ -15988,10 +16783,13 @@
       <c r="Q264" s="2">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R264" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="B265" s="5">
         <v>35</v>
@@ -16041,10 +16839,13 @@
       <c r="Q265" s="2">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R265" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="B266" s="5">
         <v>33</v>
@@ -16094,10 +16895,13 @@
       <c r="Q266" s="2">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R266" s="2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="B267" s="5">
         <v>36</v>
@@ -16147,10 +16951,13 @@
       <c r="Q267" s="2">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R267" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="B268" s="5">
         <v>35</v>
@@ -16200,10 +17007,13 @@
       <c r="Q268" s="2">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R268" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B269" s="5">
         <v>33</v>
@@ -16253,10 +17063,13 @@
       <c r="Q269" s="2">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R269" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="B270" s="5">
         <v>31</v>
@@ -16306,10 +17119,13 @@
       <c r="Q270" s="2">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R270" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="B271" s="5">
         <v>33</v>
@@ -16359,10 +17175,13 @@
       <c r="Q271" s="2">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R271" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="B272" s="5">
         <v>32</v>
@@ -16412,10 +17231,13 @@
       <c r="Q272" s="2">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R272" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>287</v>
+        <v>353</v>
       </c>
       <c r="B273" s="5">
         <v>30</v>
@@ -16465,10 +17287,13 @@
       <c r="Q273" s="2">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R273" s="2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="B274" s="5">
         <v>34</v>
@@ -16518,10 +17343,13 @@
       <c r="Q274" s="2">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R274" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="B275" s="5">
         <v>38</v>
@@ -16571,10 +17399,13 @@
       <c r="Q275" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R275" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B276" s="5">
         <v>31</v>
@@ -16624,10 +17455,13 @@
       <c r="Q276" s="2">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R276" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B277" s="5">
         <v>30</v>
@@ -16677,10 +17511,13 @@
       <c r="Q277" s="2">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R277" s="2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B278" s="5">
         <v>33</v>
@@ -16730,10 +17567,13 @@
       <c r="Q278" s="2">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R278" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="B279" s="5">
         <v>34</v>
@@ -16783,10 +17623,13 @@
       <c r="Q279" s="2">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R279" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="B280" s="5">
         <v>32</v>
@@ -16836,10 +17679,13 @@
       <c r="Q280" s="2">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R280" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="B281" s="5">
         <v>30</v>
@@ -16889,10 +17735,13 @@
       <c r="Q281" s="2">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R281" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="B282" s="5">
         <v>32</v>
@@ -16942,10 +17791,13 @@
       <c r="Q282" s="2">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R282" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="B283" s="5">
         <v>32</v>
@@ -16995,10 +17847,13 @@
       <c r="Q283" s="2">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R283" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="B284" s="5">
         <v>30</v>
@@ -17048,10 +17903,13 @@
       <c r="Q284" s="2">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R284" s="2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="B285" s="5">
         <v>32</v>
@@ -17101,10 +17959,13 @@
       <c r="Q285" s="2">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R285" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="B286" s="5">
         <v>31</v>
@@ -17154,10 +18015,13 @@
       <c r="Q286" s="2">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R286" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="B287" s="5">
         <v>33</v>
@@ -17207,10 +18071,13 @@
       <c r="Q287" s="2">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R287" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="B288" s="5">
         <v>37</v>
@@ -17260,10 +18127,13 @@
       <c r="Q288" s="2">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R288" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="B289" s="5">
         <v>36</v>
@@ -17313,10 +18183,13 @@
       <c r="Q289" s="2">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R289" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="B290" s="5">
         <v>29</v>
@@ -17366,10 +18239,13 @@
       <c r="Q290" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R290" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="B291" s="5">
         <v>32</v>
@@ -17419,10 +18295,13 @@
       <c r="Q291" s="2">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R291" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="B292" s="5">
         <v>33</v>
@@ -17472,10 +18351,13 @@
       <c r="Q292" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R292" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="B293" s="5">
         <v>32</v>
@@ -17525,10 +18407,13 @@
       <c r="Q293" s="2">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R293" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="B294" s="5">
         <v>33</v>
@@ -17578,10 +18463,13 @@
       <c r="Q294" s="2">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R294" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="B295" s="5">
         <v>36</v>
@@ -17631,10 +18519,13 @@
       <c r="Q295" s="2">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R295" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="B296" s="5">
         <v>35</v>
@@ -17684,10 +18575,13 @@
       <c r="Q296" s="2">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R296" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="B297" s="5">
         <v>31</v>
@@ -17737,10 +18631,13 @@
       <c r="Q297" s="2">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R297" s="2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="B298" s="5">
         <v>34</v>
@@ -17790,10 +18687,13 @@
       <c r="Q298" s="2">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R298" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="B299" s="5">
         <v>34</v>
@@ -17843,10 +18743,13 @@
       <c r="Q299" s="2">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R299" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="B300" s="5">
         <v>31</v>
@@ -17896,10 +18799,13 @@
       <c r="Q300" s="2">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R300" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="B301" s="5">
         <v>31</v>
@@ -17949,10 +18855,13 @@
       <c r="Q301" s="2">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R301" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="B302" s="5">
         <v>30</v>
@@ -18002,10 +18911,13 @@
       <c r="Q302" s="2">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R302" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="B303" s="5">
         <v>33</v>
@@ -18055,10 +18967,13 @@
       <c r="Q303" s="2">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R303" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="B304" s="5">
         <v>37</v>
@@ -18108,10 +19023,13 @@
       <c r="Q304" s="2">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R304" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="B305" s="5">
         <v>34</v>
@@ -18161,10 +19079,13 @@
       <c r="Q305" s="2">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R305" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="B306" s="5">
         <v>34</v>
@@ -18214,10 +19135,13 @@
       <c r="Q306" s="2">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R306" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="B307" s="5">
         <v>32</v>
@@ -18267,10 +19191,13 @@
       <c r="Q307" s="2">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R307" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="B308" s="5">
         <v>31</v>
@@ -18320,10 +19247,13 @@
       <c r="Q308" s="2">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R308" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="B309" s="5">
         <v>34</v>
@@ -18373,10 +19303,13 @@
       <c r="Q309" s="2">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R309" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="B310" s="5">
         <v>32</v>
@@ -18426,10 +19359,13 @@
       <c r="Q310" s="2">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R310" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="B311" s="5">
         <v>30</v>
@@ -18479,10 +19415,13 @@
       <c r="Q311" s="2">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R311" s="2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="B312" s="5">
         <v>34</v>
@@ -18532,10 +19471,13 @@
       <c r="Q312" s="2">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R312" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="B313" s="5">
         <v>31</v>
@@ -18585,10 +19527,13 @@
       <c r="Q313" s="2">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R313" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="B314" s="5">
         <v>32</v>
@@ -18638,10 +19583,13 @@
       <c r="Q314" s="2">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R314" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="315" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="B315" s="5">
         <v>35</v>
@@ -18691,10 +19639,13 @@
       <c r="Q315" s="2">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R315" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="316" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="B316" s="5">
         <v>34</v>
@@ -18744,10 +19695,13 @@
       <c r="Q316" s="2">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R316" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="317" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="B317" s="5">
         <v>36</v>
@@ -18797,10 +19751,13 @@
       <c r="Q317" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R317" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="318" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="B318" s="5">
         <v>31</v>
@@ -18850,10 +19807,13 @@
       <c r="Q318" s="2">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R318" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="319" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="B319" s="5">
         <v>34</v>
@@ -18903,10 +19863,13 @@
       <c r="Q319" s="2">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R319" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="320" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="B320" s="5">
         <v>34</v>
@@ -18956,10 +19919,13 @@
       <c r="Q320" s="2">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R320" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="B321" s="5">
         <v>37</v>
@@ -19009,10 +19975,13 @@
       <c r="Q321" s="2">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R321" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="B322" s="5">
         <v>32</v>
@@ -19062,10 +20031,13 @@
       <c r="Q322" s="2">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R322" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="B323" s="5">
         <v>32</v>
@@ -19115,10 +20087,13 @@
       <c r="Q323" s="2">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R323" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="B324" s="5">
         <v>33</v>
@@ -19168,10 +20143,13 @@
       <c r="Q324" s="2">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R324" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="B325" s="5">
         <v>34</v>
@@ -19221,10 +20199,13 @@
       <c r="Q325" s="2">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R325" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="B326" s="5">
         <v>31</v>
@@ -19274,10 +20255,13 @@
       <c r="Q326" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R326" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="B327" s="5">
         <v>33</v>
@@ -19327,10 +20311,13 @@
       <c r="Q327" s="2">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R327" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="B328" s="5">
         <v>34</v>
@@ -19380,10 +20367,13 @@
       <c r="Q328" s="2">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R328" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="B329" s="5">
         <v>35</v>
@@ -19433,10 +20423,13 @@
       <c r="Q329" s="2">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R329" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="B330" s="5">
         <v>35</v>
@@ -19486,10 +20479,13 @@
       <c r="Q330" s="2">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R330" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="B331" s="5">
         <v>31</v>
@@ -19539,10 +20535,13 @@
       <c r="Q331" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R331" s="2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="B332" s="5">
         <v>37</v>
@@ -19592,10 +20591,13 @@
       <c r="Q332" s="2">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R332" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="B333" s="5">
         <v>31</v>
@@ -19645,10 +20647,13 @@
       <c r="Q333" s="2">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R333" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="B334" s="5">
         <v>33</v>
@@ -19698,10 +20703,13 @@
       <c r="Q334" s="2">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R334" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="B335" s="5">
         <v>31</v>
@@ -19751,10 +20759,13 @@
       <c r="Q335" s="2">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R335" s="2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="B336" s="5">
         <v>32</v>
@@ -19804,10 +20815,13 @@
       <c r="Q336" s="2">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R336" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="337" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="B337" s="5">
         <v>31</v>
@@ -19857,10 +20871,13 @@
       <c r="Q337" s="2">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R337" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="338" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="B338" s="5">
         <v>33</v>
@@ -19910,10 +20927,13 @@
       <c r="Q338" s="2">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R338" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="339" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="B339" s="5">
         <v>34</v>
@@ -19963,10 +20983,13 @@
       <c r="Q339" s="2">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R339" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="340" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="B340" s="5">
         <v>30</v>
@@ -20016,10 +21039,13 @@
       <c r="Q340" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R340" s="2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="341" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="B341" s="5">
         <v>32</v>
@@ -20069,10 +21095,13 @@
       <c r="Q341" s="2">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R341" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="342" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="B342" s="5">
         <v>33</v>
@@ -20122,10 +21151,13 @@
       <c r="Q342" s="2">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R342" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="343" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="B343" s="5">
         <v>36</v>
@@ -20175,10 +21207,13 @@
       <c r="Q343" s="2">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R343" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="B344" s="5">
         <v>32</v>
@@ -20228,10 +21263,13 @@
       <c r="Q344" s="2">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R344" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="345" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="B345" s="5">
         <v>33</v>
@@ -20281,10 +21319,13 @@
       <c r="Q345" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R345" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="346" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="B346" s="5">
         <v>38</v>
@@ -20334,10 +21375,13 @@
       <c r="Q346" s="2">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R346" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="B347" s="5">
         <v>33</v>
@@ -20387,10 +21431,13 @@
       <c r="Q347" s="2">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R347" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="348" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="B348" s="5">
         <v>36</v>
@@ -20440,10 +21487,13 @@
       <c r="Q348" s="2">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R348" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="349" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="B349" s="5">
         <v>33</v>
@@ -20493,10 +21543,13 @@
       <c r="Q349" s="2">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R349" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="350" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="B350" s="5">
         <v>34</v>
@@ -20546,10 +21599,13 @@
       <c r="Q350" s="2">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R350" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="351" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="B351" s="5">
         <v>33</v>
@@ -20599,10 +21655,13 @@
       <c r="Q351" s="2">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R351" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="352" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="B352" s="5">
         <v>32</v>
@@ -20651,6 +21710,9 @@
       </c>
       <c r="Q352" s="2">
         <v>14.3</v>
+      </c>
+      <c r="R352" s="2">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/2013.stats.xlsx
+++ b/2013.stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="371">
   <si>
     <t>G</t>
   </si>
@@ -1124,6 +1124,9 @@
   </si>
   <si>
     <t>na</t>
+  </si>
+  <si>
+    <t>Tournament?</t>
   </si>
 </sst>
 </file>
@@ -1628,7 +1631,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1647,6 +1650,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1991,7 +1997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R352"/>
+  <dimension ref="A1:T353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2000,10 +2006,13 @@
     <col min="1" max="1" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="9.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>368</v>
       </c>
@@ -2058,8 +2067,11 @@
       <c r="R1" s="3" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -2114,8 +2126,12 @@
       <c r="R2" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -2170,8 +2186,12 @@
       <c r="R3" s="2">
         <v>247</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2226,8 +2246,12 @@
       <c r="R4" s="2">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -2282,8 +2306,12 @@
       <c r="R5" s="2">
         <v>272</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>339</v>
       </c>
@@ -2338,8 +2366,12 @@
       <c r="R6" s="2">
         <v>153</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2394,8 +2426,12 @@
       <c r="R7" s="2">
         <v>253</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2450,8 +2486,12 @@
       <c r="R8" s="2">
         <v>128</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>341</v>
       </c>
@@ -2506,8 +2546,12 @@
       <c r="R9" s="2">
         <v>171</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2562,8 +2606,12 @@
       <c r="R10" s="2">
         <v>315</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -2618,8 +2666,12 @@
       <c r="R11" s="2">
         <v>123</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -2674,8 +2726,12 @@
       <c r="R12" s="2">
         <v>335</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2730,8 +2786,12 @@
       <c r="R13" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="2">
+        <v>1</v>
+      </c>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -2786,8 +2846,12 @@
       <c r="R14" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="2">
+        <v>1</v>
+      </c>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -2842,8 +2906,12 @@
       <c r="R15" s="2">
         <v>191</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -2898,8 +2966,12 @@
       <c r="R16" s="2">
         <v>265</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -2954,8 +3026,12 @@
       <c r="R17" s="2">
         <v>186</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -3010,8 +3086,12 @@
       <c r="R18" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -3066,8 +3146,12 @@
       <c r="R19" s="2">
         <v>237</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -3122,8 +3206,12 @@
       <c r="R20" s="2">
         <v>160</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -3178,8 +3266,12 @@
       <c r="R21" s="2">
         <v>299</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -3234,8 +3326,12 @@
       <c r="R22" s="2">
         <v>311</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -3290,8 +3386,12 @@
       <c r="R23" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="2">
+        <v>1</v>
+      </c>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
@@ -3346,8 +3446,12 @@
       <c r="R24" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -3402,8 +3506,12 @@
       <c r="R25" s="2">
         <v>343</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="2">
+        <v>0</v>
+      </c>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -3458,8 +3566,12 @@
       <c r="R26" s="2">
         <v>326</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="2">
+        <v>0</v>
+      </c>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -3514,8 +3626,12 @@
       <c r="R27" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="2">
+        <v>0</v>
+      </c>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -3570,8 +3686,12 @@
       <c r="R28" s="2">
         <v>206</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
@@ -3626,8 +3746,12 @@
       <c r="R29" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>346</v>
       </c>
@@ -3682,8 +3806,12 @@
       <c r="R30" s="2">
         <v>198</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="2">
+        <v>0</v>
+      </c>
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
@@ -3738,8 +3866,12 @@
       <c r="R31" s="2">
         <v>264</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="2">
+        <v>0</v>
+      </c>
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>326</v>
       </c>
@@ -3794,8 +3926,12 @@
       <c r="R32" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="2">
+        <v>1</v>
+      </c>
+      <c r="T32" s="2"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
@@ -3850,8 +3986,12 @@
       <c r="R33" s="2">
         <v>232</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>43</v>
       </c>
@@ -3906,8 +4046,12 @@
       <c r="R34" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="2">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
@@ -3962,8 +4106,12 @@
       <c r="R35" s="2">
         <v>170</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
@@ -4018,8 +4166,12 @@
       <c r="R36" s="2">
         <v>108</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" s="2"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
@@ -4074,8 +4226,12 @@
       <c r="R37" s="2">
         <v>154</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S37" s="2">
+        <v>0</v>
+      </c>
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
@@ -4130,8 +4286,12 @@
       <c r="R38" s="2">
         <v>184</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2">
+        <v>1</v>
+      </c>
+      <c r="T38" s="2"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
@@ -4186,8 +4346,12 @@
       <c r="R39" s="2">
         <v>279</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="2">
+        <v>0</v>
+      </c>
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
@@ -4242,8 +4406,12 @@
       <c r="R40" s="2">
         <v>285</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="2">
+        <v>0</v>
+      </c>
+      <c r="T40" s="2"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
@@ -4298,8 +4466,12 @@
       <c r="R41" s="2">
         <v>251</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>363</v>
       </c>
@@ -4354,8 +4526,12 @@
       <c r="R42" s="2">
         <v>323</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="2">
+        <v>0</v>
+      </c>
+      <c r="T42" s="2"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>335</v>
       </c>
@@ -4410,8 +4586,12 @@
       <c r="R43" s="2">
         <v>110</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>362</v>
       </c>
@@ -4466,8 +4646,12 @@
       <c r="R44" s="2">
         <v>320</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="2">
+        <v>0</v>
+      </c>
+      <c r="T44" s="2"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>333</v>
       </c>
@@ -4522,8 +4706,12 @@
       <c r="R45" s="2">
         <v>107</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="2">
+        <v>0</v>
+      </c>
+      <c r="T45" s="2"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>51</v>
       </c>
@@ -4578,8 +4766,12 @@
       <c r="R46" s="2">
         <v>59</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="2">
+        <v>0</v>
+      </c>
+      <c r="T46" s="2"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>52</v>
       </c>
@@ -4634,8 +4826,12 @@
       <c r="R47" s="2">
         <v>316</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="2">
+        <v>0</v>
+      </c>
+      <c r="T47" s="2"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
@@ -4690,8 +4886,12 @@
       <c r="R48" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="2">
+        <v>0</v>
+      </c>
+      <c r="T48" s="2"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>54</v>
       </c>
@@ -4746,8 +4946,12 @@
       <c r="R49" s="2">
         <v>328</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="2">
+        <v>0</v>
+      </c>
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>356</v>
       </c>
@@ -4802,8 +5006,12 @@
       <c r="R50" s="2">
         <v>289</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="2">
+        <v>0</v>
+      </c>
+      <c r="T50" s="2"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>349</v>
       </c>
@@ -4858,8 +5066,12 @@
       <c r="R51" s="2">
         <v>209</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="2">
+        <v>0</v>
+      </c>
+      <c r="T51" s="2"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>55</v>
       </c>
@@ -4914,8 +5126,12 @@
       <c r="R52" s="2">
         <v>294</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="2">
+        <v>0</v>
+      </c>
+      <c r="T52" s="2"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>56</v>
       </c>
@@ -4970,8 +5186,12 @@
       <c r="R53" s="2">
         <v>268</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="2">
+        <v>0</v>
+      </c>
+      <c r="T53" s="2"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>57</v>
       </c>
@@ -5026,8 +5246,12 @@
       <c r="R54" s="2">
         <v>151</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="2">
+        <v>0</v>
+      </c>
+      <c r="T54" s="2"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>58</v>
       </c>
@@ -5082,8 +5306,12 @@
       <c r="R55" s="2">
         <v>248</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="2">
+        <v>0</v>
+      </c>
+      <c r="T55" s="2"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>59</v>
       </c>
@@ -5138,8 +5366,12 @@
       <c r="R56" s="2">
         <v>260</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="2">
+        <v>0</v>
+      </c>
+      <c r="T56" s="2"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>60</v>
       </c>
@@ -5194,8 +5426,12 @@
       <c r="R57" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="2">
+        <v>1</v>
+      </c>
+      <c r="T57" s="2"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>61</v>
       </c>
@@ -5250,8 +5486,12 @@
       <c r="R58" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="2">
+        <v>0</v>
+      </c>
+      <c r="T58" s="2"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>62</v>
       </c>
@@ -5306,8 +5546,12 @@
       <c r="R59" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="2">
+        <v>0</v>
+      </c>
+      <c r="T59" s="2"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>63</v>
       </c>
@@ -5362,8 +5606,12 @@
       <c r="R60" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="2">
+        <v>0</v>
+      </c>
+      <c r="T60" s="2"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>64</v>
       </c>
@@ -5418,8 +5666,12 @@
       <c r="R61" s="2">
         <v>182</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="2">
+        <v>1</v>
+      </c>
+      <c r="T61" s="2"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
@@ -5474,8 +5726,12 @@
       <c r="R62" s="2">
         <v>258</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="2">
+        <v>0</v>
+      </c>
+      <c r="T62" s="2"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>66</v>
       </c>
@@ -5530,8 +5786,12 @@
       <c r="R63" s="2">
         <v>243</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="2">
+        <v>0</v>
+      </c>
+      <c r="T63" s="2"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>67</v>
       </c>
@@ -5586,8 +5846,12 @@
       <c r="R64" s="2">
         <v>185</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="2">
+        <v>0</v>
+      </c>
+      <c r="T64" s="2"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>68</v>
       </c>
@@ -5642,8 +5906,12 @@
       <c r="R65" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="2">
+        <v>1</v>
+      </c>
+      <c r="T65" s="2"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>69</v>
       </c>
@@ -5698,8 +5966,12 @@
       <c r="R66" s="2">
         <v>127</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="2">
+        <v>0</v>
+      </c>
+      <c r="T66" s="2"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>70</v>
       </c>
@@ -5754,8 +6026,12 @@
       <c r="R67" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="2">
+        <v>1</v>
+      </c>
+      <c r="T67" s="2"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>71</v>
       </c>
@@ -5810,8 +6086,12 @@
       <c r="R68" s="2">
         <v>263</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="2">
+        <v>0</v>
+      </c>
+      <c r="T68" s="2"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>72</v>
       </c>
@@ -5866,8 +6146,12 @@
       <c r="R69" s="2">
         <v>329</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="2">
+        <v>0</v>
+      </c>
+      <c r="T69" s="2"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>73</v>
       </c>
@@ -5922,8 +6206,12 @@
       <c r="R70" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="2">
+        <v>1</v>
+      </c>
+      <c r="T70" s="2"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>74</v>
       </c>
@@ -5978,8 +6266,12 @@
       <c r="R71" s="2">
         <v>262</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="2">
+        <v>0</v>
+      </c>
+      <c r="T71" s="2"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>75</v>
       </c>
@@ -6034,8 +6326,12 @@
       <c r="R72" s="2">
         <v>131</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="2">
+        <v>0</v>
+      </c>
+      <c r="T72" s="2"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>76</v>
       </c>
@@ -6090,8 +6386,12 @@
       <c r="R73" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="2">
+        <v>1</v>
+      </c>
+      <c r="T73" s="2"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>77</v>
       </c>
@@ -6146,8 +6446,12 @@
       <c r="R74" s="2">
         <v>330</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="2">
+        <v>0</v>
+      </c>
+      <c r="T74" s="2"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>78</v>
       </c>
@@ -6202,8 +6506,12 @@
       <c r="R75" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="2">
+        <v>1</v>
+      </c>
+      <c r="T75" s="2"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>79</v>
       </c>
@@ -6258,8 +6566,12 @@
       <c r="R76" s="2">
         <v>145</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="2">
+        <v>0</v>
+      </c>
+      <c r="T76" s="2"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>80</v>
       </c>
@@ -6314,8 +6626,12 @@
       <c r="R77" s="2">
         <v>157</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="2">
+        <v>0</v>
+      </c>
+      <c r="T77" s="2"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>351</v>
       </c>
@@ -6370,8 +6686,12 @@
       <c r="R78" s="2">
         <v>234</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S78" s="2">
+        <v>0</v>
+      </c>
+      <c r="T78" s="2"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>81</v>
       </c>
@@ -6426,8 +6746,12 @@
       <c r="R79" s="2">
         <v>179</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S79" s="2">
+        <v>0</v>
+      </c>
+      <c r="T79" s="2"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>82</v>
       </c>
@@ -6482,8 +6806,12 @@
       <c r="R80" s="2">
         <v>135</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2">
+        <v>0</v>
+      </c>
+      <c r="T80" s="2"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>83</v>
       </c>
@@ -6538,8 +6866,12 @@
       <c r="R81" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="2">
+        <v>1</v>
+      </c>
+      <c r="T81" s="2"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -6594,8 +6926,12 @@
       <c r="R82" s="2">
         <v>192</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="2">
+        <v>0</v>
+      </c>
+      <c r="T82" s="2"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>85</v>
       </c>
@@ -6650,8 +6986,12 @@
       <c r="R83" s="2">
         <v>223</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="2">
+        <v>0</v>
+      </c>
+      <c r="T83" s="2"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>86</v>
       </c>
@@ -6706,8 +7046,12 @@
       <c r="R84" s="2">
         <v>208</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="2">
+        <v>0</v>
+      </c>
+      <c r="T84" s="2"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>87</v>
       </c>
@@ -6762,8 +7106,12 @@
       <c r="R85" s="2">
         <v>286</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="2">
+        <v>0</v>
+      </c>
+      <c r="T85" s="2"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>88</v>
       </c>
@@ -6818,8 +7166,12 @@
       <c r="R86" s="2">
         <v>95</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="2">
+        <v>1</v>
+      </c>
+      <c r="T86" s="2"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>89</v>
       </c>
@@ -6874,8 +7226,12 @@
       <c r="R87" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="2">
+        <v>0</v>
+      </c>
+      <c r="T87" s="2"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>90</v>
       </c>
@@ -6930,8 +7286,12 @@
       <c r="R88" s="2">
         <v>230</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="2">
+        <v>0</v>
+      </c>
+      <c r="T88" s="2"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>91</v>
       </c>
@@ -6986,8 +7346,12 @@
       <c r="R89" s="2">
         <v>164</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="2">
+        <v>0</v>
+      </c>
+      <c r="T89" s="2"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
@@ -7042,8 +7406,12 @@
       <c r="R90" s="2">
         <v>210</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="2">
+        <v>0</v>
+      </c>
+      <c r="T90" s="2"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>93</v>
       </c>
@@ -7098,8 +7466,12 @@
       <c r="R91" s="2">
         <v>288</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="2">
+        <v>0</v>
+      </c>
+      <c r="T91" s="2"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
@@ -7154,8 +7526,12 @@
       <c r="R92" s="2">
         <v>269</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="2">
+        <v>0</v>
+      </c>
+      <c r="T92" s="2"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -7210,8 +7586,12 @@
       <c r="R93" s="2">
         <v>296</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="2">
+        <v>0</v>
+      </c>
+      <c r="T93" s="2"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
@@ -7266,8 +7646,12 @@
       <c r="R94" s="2">
         <v>271</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="2">
+        <v>0</v>
+      </c>
+      <c r="T94" s="2"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>97</v>
       </c>
@@ -7322,8 +7706,12 @@
       <c r="R95" s="2">
         <v>149</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="2">
+        <v>0</v>
+      </c>
+      <c r="T95" s="2"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>348</v>
       </c>
@@ -7378,8 +7766,12 @@
       <c r="R96" s="2">
         <v>207</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="2">
+        <v>0</v>
+      </c>
+      <c r="T96" s="2"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>98</v>
       </c>
@@ -7434,8 +7826,12 @@
       <c r="R97" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="2">
+        <v>0</v>
+      </c>
+      <c r="T97" s="2"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>99</v>
       </c>
@@ -7490,8 +7886,12 @@
       <c r="R98" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="2">
+        <v>1</v>
+      </c>
+      <c r="T98" s="2"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>100</v>
       </c>
@@ -7546,8 +7946,12 @@
       <c r="R99" s="2">
         <v>225</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="2">
+        <v>0</v>
+      </c>
+      <c r="T99" s="2"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>101</v>
       </c>
@@ -7602,8 +8006,12 @@
       <c r="R100" s="2">
         <v>106</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="2">
+        <v>0</v>
+      </c>
+      <c r="T100" s="2"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>102</v>
       </c>
@@ -7658,8 +8066,12 @@
       <c r="R101" s="2">
         <v>339</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="2">
+        <v>0</v>
+      </c>
+      <c r="T101" s="2"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>103</v>
       </c>
@@ -7714,8 +8126,12 @@
       <c r="R102" s="2">
         <v>241</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S102" s="2">
+        <v>0</v>
+      </c>
+      <c r="T102" s="2"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>104</v>
       </c>
@@ -7770,8 +8186,12 @@
       <c r="R103" s="2">
         <v>173</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S103" s="2">
+        <v>0</v>
+      </c>
+      <c r="T103" s="2"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>105</v>
       </c>
@@ -7826,8 +8246,12 @@
       <c r="R104" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S104" s="2">
+        <v>1</v>
+      </c>
+      <c r="T104" s="2"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>106</v>
       </c>
@@ -7882,8 +8306,12 @@
       <c r="R105" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S105" s="2">
+        <v>0</v>
+      </c>
+      <c r="T105" s="2"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>107</v>
       </c>
@@ -7938,8 +8366,12 @@
       <c r="R106" s="2">
         <v>304</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S106" s="2">
+        <v>0</v>
+      </c>
+      <c r="T106" s="2"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>108</v>
       </c>
@@ -7994,8 +8426,12 @@
       <c r="R107" s="2">
         <v>78</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S107" s="2">
+        <v>0</v>
+      </c>
+      <c r="T107" s="2"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>109</v>
       </c>
@@ -8050,8 +8486,12 @@
       <c r="R108" s="2">
         <v>155</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S108" s="2">
+        <v>0</v>
+      </c>
+      <c r="T108" s="2"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>110</v>
       </c>
@@ -8106,8 +8546,12 @@
       <c r="R109" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S109" s="2">
+        <v>0</v>
+      </c>
+      <c r="T109" s="2"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>111</v>
       </c>
@@ -8162,8 +8606,12 @@
       <c r="R110" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S110" s="2">
+        <v>1</v>
+      </c>
+      <c r="T110" s="2"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>112</v>
       </c>
@@ -8218,8 +8666,12 @@
       <c r="R111" s="2">
         <v>348</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S111" s="2">
+        <v>0</v>
+      </c>
+      <c r="T111" s="2"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>113</v>
       </c>
@@ -8274,8 +8726,12 @@
       <c r="R112" s="2">
         <v>220</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S112" s="2">
+        <v>0</v>
+      </c>
+      <c r="T112" s="2"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>114</v>
       </c>
@@ -8330,8 +8786,12 @@
       <c r="R113" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S113" s="2">
+        <v>0</v>
+      </c>
+      <c r="T113" s="2"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>115</v>
       </c>
@@ -8386,8 +8846,12 @@
       <c r="R114" s="2">
         <v>213</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S114" s="2">
+        <v>0</v>
+      </c>
+      <c r="T114" s="2"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>116</v>
       </c>
@@ -8442,8 +8906,12 @@
       <c r="R115" s="2">
         <v>235</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S115" s="2">
+        <v>0</v>
+      </c>
+      <c r="T115" s="2"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>117</v>
       </c>
@@ -8498,8 +8966,12 @@
       <c r="R116" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S116" s="2">
+        <v>1</v>
+      </c>
+      <c r="T116" s="2"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>118</v>
       </c>
@@ -8554,8 +9026,12 @@
       <c r="R117" s="2">
         <v>161</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S117" s="2">
+        <v>0</v>
+      </c>
+      <c r="T117" s="2"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>119</v>
       </c>
@@ -8610,8 +9086,12 @@
       <c r="R118" s="2">
         <v>172</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S118" s="2">
+        <v>0</v>
+      </c>
+      <c r="T118" s="2"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>120</v>
       </c>
@@ -8666,8 +9146,12 @@
       <c r="R119" s="2">
         <v>276</v>
       </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S119" s="2">
+        <v>0</v>
+      </c>
+      <c r="T119" s="2"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>121</v>
       </c>
@@ -8722,8 +9206,12 @@
       <c r="R120" s="2">
         <v>132</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S120" s="2">
+        <v>0</v>
+      </c>
+      <c r="T120" s="2"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>122</v>
       </c>
@@ -8778,8 +9266,12 @@
       <c r="R121" s="2">
         <v>341</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S121" s="2">
+        <v>0</v>
+      </c>
+      <c r="T121" s="2"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>123</v>
       </c>
@@ -8834,8 +9326,12 @@
       <c r="R122" s="2">
         <v>138</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S122" s="2">
+        <v>0</v>
+      </c>
+      <c r="T122" s="2"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>124</v>
       </c>
@@ -8890,8 +9386,12 @@
       <c r="R123" s="2">
         <v>324</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S123" s="2">
+        <v>0</v>
+      </c>
+      <c r="T123" s="2"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>125</v>
       </c>
@@ -8946,8 +9446,12 @@
       <c r="R124" s="2">
         <v>293</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S124" s="2">
+        <v>0</v>
+      </c>
+      <c r="T124" s="2"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>126</v>
       </c>
@@ -9002,8 +9506,12 @@
       <c r="R125" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S125" s="2">
+        <v>0</v>
+      </c>
+      <c r="T125" s="2"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>127</v>
       </c>
@@ -9058,8 +9566,12 @@
       <c r="R126" s="2">
         <v>317</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S126" s="2">
+        <v>0</v>
+      </c>
+      <c r="T126" s="2"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>128</v>
       </c>
@@ -9114,8 +9626,12 @@
       <c r="R127" s="2">
         <v>133</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S127" s="2">
+        <v>0</v>
+      </c>
+      <c r="T127" s="2"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>129</v>
       </c>
@@ -9170,8 +9686,12 @@
       <c r="R128" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S128" s="2">
+        <v>0</v>
+      </c>
+      <c r="T128" s="2"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>130</v>
       </c>
@@ -9226,8 +9746,12 @@
       <c r="R129" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S129" s="2">
+        <v>0</v>
+      </c>
+      <c r="T129" s="2"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>131</v>
       </c>
@@ -9282,8 +9806,12 @@
       <c r="R130" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S130" s="2">
+        <v>0</v>
+      </c>
+      <c r="T130" s="2"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>132</v>
       </c>
@@ -9338,8 +9866,12 @@
       <c r="R131" s="2">
         <v>97</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S131" s="2">
+        <v>0</v>
+      </c>
+      <c r="T131" s="2"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>133</v>
       </c>
@@ -9394,8 +9926,12 @@
       <c r="R132" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S132" s="2">
+        <v>0</v>
+      </c>
+      <c r="T132" s="2"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>134</v>
       </c>
@@ -9450,8 +9986,12 @@
       <c r="R133" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S133" s="2">
+        <v>1</v>
+      </c>
+      <c r="T133" s="2"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>135</v>
       </c>
@@ -9506,8 +10046,12 @@
       <c r="R134" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S134" s="2">
+        <v>1</v>
+      </c>
+      <c r="T134" s="2"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>136</v>
       </c>
@@ -9562,8 +10106,12 @@
       <c r="R135" s="2">
         <v>116</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S135" s="2">
+        <v>0</v>
+      </c>
+      <c r="T135" s="2"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>137</v>
       </c>
@@ -9618,8 +10166,12 @@
       <c r="R136" s="2">
         <v>322</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S136" s="2">
+        <v>0</v>
+      </c>
+      <c r="T136" s="2"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>138</v>
       </c>
@@ -9674,8 +10226,12 @@
       <c r="R137" s="2">
         <v>297</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S137" s="2">
+        <v>0</v>
+      </c>
+      <c r="T137" s="2"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>139</v>
       </c>
@@ -9730,8 +10286,12 @@
       <c r="R138" s="2">
         <v>314</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S138" s="2">
+        <v>0</v>
+      </c>
+      <c r="T138" s="2"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>140</v>
       </c>
@@ -9786,8 +10346,12 @@
       <c r="R139" s="2">
         <v>282</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S139" s="2">
+        <v>0</v>
+      </c>
+      <c r="T139" s="2"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>141</v>
       </c>
@@ -9842,8 +10406,12 @@
       <c r="R140" s="2">
         <v>236</v>
       </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S140" s="2">
+        <v>0</v>
+      </c>
+      <c r="T140" s="2"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>142</v>
       </c>
@@ -9898,8 +10466,12 @@
       <c r="R141" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S141" s="2">
+        <v>1</v>
+      </c>
+      <c r="T141" s="2"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>143</v>
       </c>
@@ -9954,8 +10526,12 @@
       <c r="R142" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S142" s="2">
+        <v>1</v>
+      </c>
+      <c r="T142" s="2"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>144</v>
       </c>
@@ -10010,8 +10586,12 @@
       <c r="R143" s="2">
         <v>325</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S143" s="2">
+        <v>0</v>
+      </c>
+      <c r="T143" s="2"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>145</v>
       </c>
@@ -10066,8 +10646,12 @@
       <c r="R144" s="2">
         <v>212</v>
       </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S144" s="2">
+        <v>0</v>
+      </c>
+      <c r="T144" s="2"/>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>146</v>
       </c>
@@ -10122,8 +10706,12 @@
       <c r="R145" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S145" s="2">
+        <v>1</v>
+      </c>
+      <c r="T145" s="2"/>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>147</v>
       </c>
@@ -10178,8 +10766,12 @@
       <c r="R146" s="2">
         <v>98</v>
       </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S146" s="2">
+        <v>0</v>
+      </c>
+      <c r="T146" s="2"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
@@ -10234,8 +10826,12 @@
       <c r="R147" s="2">
         <v>256</v>
       </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S147" s="2">
+        <v>0</v>
+      </c>
+      <c r="T147" s="2"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>149</v>
       </c>
@@ -10290,8 +10886,12 @@
       <c r="R148" s="2">
         <v>344</v>
       </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S148" s="2">
+        <v>0</v>
+      </c>
+      <c r="T148" s="2"/>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>150</v>
       </c>
@@ -10346,8 +10946,12 @@
       <c r="R149" s="2">
         <v>238</v>
       </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S149" s="2">
+        <v>0</v>
+      </c>
+      <c r="T149" s="2"/>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>151</v>
       </c>
@@ -10402,8 +11006,12 @@
       <c r="R150" s="2">
         <v>309</v>
       </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S150" s="2">
+        <v>0</v>
+      </c>
+      <c r="T150" s="2"/>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>152</v>
       </c>
@@ -10458,8 +11066,12 @@
       <c r="R151" s="2">
         <v>203</v>
       </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S151" s="2">
+        <v>0</v>
+      </c>
+      <c r="T151" s="2"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>153</v>
       </c>
@@ -10514,8 +11126,12 @@
       <c r="R152" s="2">
         <v>168</v>
       </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S152" s="2">
+        <v>0</v>
+      </c>
+      <c r="T152" s="2"/>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>358</v>
       </c>
@@ -10570,8 +11186,12 @@
       <c r="R153" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S153" s="2">
+        <v>0</v>
+      </c>
+      <c r="T153" s="2"/>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>154</v>
       </c>
@@ -10626,8 +11246,12 @@
       <c r="R154" s="2">
         <v>336</v>
       </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S154" s="2">
+        <v>0</v>
+      </c>
+      <c r="T154" s="2"/>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>155</v>
       </c>
@@ -10682,8 +11306,12 @@
       <c r="R155" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S155" s="2">
+        <v>1</v>
+      </c>
+      <c r="T155" s="2"/>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>352</v>
       </c>
@@ -10738,8 +11366,12 @@
       <c r="R156" s="2">
         <v>246</v>
       </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S156" s="2">
+        <v>0</v>
+      </c>
+      <c r="T156" s="2"/>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>329</v>
       </c>
@@ -10794,8 +11426,12 @@
       <c r="R157" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S157" s="2">
+        <v>0</v>
+      </c>
+      <c r="T157" s="2"/>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>156</v>
       </c>
@@ -10850,8 +11486,12 @@
       <c r="R158" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S158" s="2">
+        <v>0</v>
+      </c>
+      <c r="T158" s="2"/>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>157</v>
       </c>
@@ -10906,8 +11546,12 @@
       <c r="R159" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S159" s="2">
+        <v>1</v>
+      </c>
+      <c r="T159" s="2"/>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>357</v>
       </c>
@@ -10962,8 +11606,12 @@
       <c r="R160" s="2">
         <v>292</v>
       </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S160" s="2">
+        <v>0</v>
+      </c>
+      <c r="T160" s="2"/>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>343</v>
       </c>
@@ -11018,8 +11666,12 @@
       <c r="R161" s="2">
         <v>183</v>
       </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S161" s="2">
+        <v>0</v>
+      </c>
+      <c r="T161" s="2"/>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>354</v>
       </c>
@@ -11074,8 +11726,12 @@
       <c r="R162" s="2">
         <v>273</v>
       </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S162" s="2">
+        <v>0</v>
+      </c>
+      <c r="T162" s="2"/>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>158</v>
       </c>
@@ -11130,8 +11786,12 @@
       <c r="R163" s="2">
         <v>333</v>
       </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S163" s="2">
+        <v>0</v>
+      </c>
+      <c r="T163" s="2"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>159</v>
       </c>
@@ -11186,8 +11846,12 @@
       <c r="R164" s="2">
         <v>61</v>
       </c>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S164" s="2">
+        <v>1</v>
+      </c>
+      <c r="T164" s="2"/>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>160</v>
       </c>
@@ -11242,8 +11906,12 @@
       <c r="R165" s="2">
         <v>245</v>
       </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S165" s="2">
+        <v>0</v>
+      </c>
+      <c r="T165" s="2"/>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>161</v>
       </c>
@@ -11298,8 +11966,12 @@
       <c r="R166" s="2">
         <v>94</v>
       </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S166" s="2">
+        <v>0</v>
+      </c>
+      <c r="T166" s="2"/>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>162</v>
       </c>
@@ -11354,8 +12026,12 @@
       <c r="R167" s="2">
         <v>275</v>
       </c>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S167" s="2">
+        <v>0</v>
+      </c>
+      <c r="T167" s="2"/>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>163</v>
       </c>
@@ -11410,8 +12086,12 @@
       <c r="R168" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S168" s="2">
+        <v>0</v>
+      </c>
+      <c r="T168" s="2"/>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>365</v>
       </c>
@@ -11466,8 +12146,12 @@
       <c r="R169" s="2">
         <v>347</v>
       </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S169" s="2">
+        <v>0</v>
+      </c>
+      <c r="T169" s="2"/>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>164</v>
       </c>
@@ -11522,8 +12206,12 @@
       <c r="R170" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S170" s="2">
+        <v>0</v>
+      </c>
+      <c r="T170" s="2"/>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>165</v>
       </c>
@@ -11578,8 +12266,12 @@
       <c r="R171" s="2">
         <v>284</v>
       </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S171" s="2">
+        <v>0</v>
+      </c>
+      <c r="T171" s="2"/>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>166</v>
       </c>
@@ -11634,8 +12326,12 @@
       <c r="R172" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S172" s="2">
+        <v>1</v>
+      </c>
+      <c r="T172" s="2"/>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>167</v>
       </c>
@@ -11690,8 +12386,12 @@
       <c r="R173" s="2">
         <v>270</v>
       </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S173" s="2">
+        <v>0</v>
+      </c>
+      <c r="T173" s="2"/>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>168</v>
       </c>
@@ -11746,8 +12446,12 @@
       <c r="R174" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S174" s="2">
+        <v>1</v>
+      </c>
+      <c r="T174" s="2"/>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>169</v>
       </c>
@@ -11802,8 +12506,12 @@
       <c r="R175" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S175" s="2">
+        <v>1</v>
+      </c>
+      <c r="T175" s="2"/>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>337</v>
       </c>
@@ -11858,8 +12566,12 @@
       <c r="R176" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S176" s="2">
+        <v>0</v>
+      </c>
+      <c r="T176" s="2"/>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>340</v>
       </c>
@@ -11914,8 +12626,12 @@
       <c r="R177" s="2">
         <v>166</v>
       </c>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S177" s="2">
+        <v>0</v>
+      </c>
+      <c r="T177" s="2"/>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>170</v>
       </c>
@@ -11970,8 +12686,12 @@
       <c r="R178" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S178" s="2">
+        <v>1</v>
+      </c>
+      <c r="T178" s="2"/>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>171</v>
       </c>
@@ -12026,8 +12746,12 @@
       <c r="R179" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S179" s="2">
+        <v>1</v>
+      </c>
+      <c r="T179" s="2"/>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>172</v>
       </c>
@@ -12082,8 +12806,12 @@
       <c r="R180" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S180" s="2">
+        <v>0</v>
+      </c>
+      <c r="T180" s="2"/>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>338</v>
       </c>
@@ -12138,8 +12866,12 @@
       <c r="R181" s="2">
         <v>134</v>
       </c>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S181" s="2">
+        <v>1</v>
+      </c>
+      <c r="T181" s="2"/>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>173</v>
       </c>
@@ -12194,8 +12926,12 @@
       <c r="R182" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S182" s="2">
+        <v>0</v>
+      </c>
+      <c r="T182" s="2"/>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>174</v>
       </c>
@@ -12250,8 +12986,12 @@
       <c r="R183" s="2">
         <v>239</v>
       </c>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S183" s="2">
+        <v>0</v>
+      </c>
+      <c r="T183" s="2"/>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>175</v>
       </c>
@@ -12306,8 +13046,12 @@
       <c r="R184" s="2">
         <v>342</v>
       </c>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S184" s="2">
+        <v>0</v>
+      </c>
+      <c r="T184" s="2"/>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>332</v>
       </c>
@@ -12362,8 +13106,12 @@
       <c r="R185" s="2">
         <v>88</v>
       </c>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S185" s="2">
+        <v>0</v>
+      </c>
+      <c r="T185" s="2"/>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>176</v>
       </c>
@@ -12418,8 +13166,12 @@
       <c r="R186" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S186" s="2">
+        <v>0</v>
+      </c>
+      <c r="T186" s="2"/>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>177</v>
       </c>
@@ -12474,8 +13226,12 @@
       <c r="R187" s="2">
         <v>93</v>
       </c>
-    </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S187" s="2">
+        <v>0</v>
+      </c>
+      <c r="T187" s="2"/>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>178</v>
       </c>
@@ -12530,8 +13286,12 @@
       <c r="R188" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S188" s="2">
+        <v>0</v>
+      </c>
+      <c r="T188" s="2"/>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>179</v>
       </c>
@@ -12586,8 +13346,12 @@
       <c r="R189" s="2">
         <v>290</v>
       </c>
-    </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S189" s="2">
+        <v>0</v>
+      </c>
+      <c r="T189" s="2"/>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>180</v>
       </c>
@@ -12642,8 +13406,12 @@
       <c r="R190" s="2">
         <v>277</v>
       </c>
-    </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S190" s="2">
+        <v>0</v>
+      </c>
+      <c r="T190" s="2"/>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>181</v>
       </c>
@@ -12698,8 +13466,12 @@
       <c r="R191" s="2">
         <v>189</v>
       </c>
-    </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S191" s="2">
+        <v>0</v>
+      </c>
+      <c r="T191" s="2"/>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>182</v>
       </c>
@@ -12754,8 +13526,12 @@
       <c r="R192" s="2">
         <v>144</v>
       </c>
-    </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S192" s="2">
+        <v>0</v>
+      </c>
+      <c r="T192" s="2"/>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>183</v>
       </c>
@@ -12810,8 +13586,12 @@
       <c r="R193" s="2">
         <v>222</v>
       </c>
-    </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S193" s="2">
+        <v>0</v>
+      </c>
+      <c r="T193" s="2"/>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>345</v>
       </c>
@@ -12866,8 +13646,12 @@
       <c r="R194" s="2">
         <v>196</v>
       </c>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S194" s="2">
+        <v>1</v>
+      </c>
+      <c r="T194" s="2"/>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>184</v>
       </c>
@@ -12922,8 +13706,12 @@
       <c r="R195" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S195" s="2">
+        <v>0</v>
+      </c>
+      <c r="T195" s="2"/>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>185</v>
       </c>
@@ -12978,8 +13766,12 @@
       <c r="R196" s="2">
         <v>321</v>
       </c>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S196" s="2">
+        <v>0</v>
+      </c>
+      <c r="T196" s="2"/>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>186</v>
       </c>
@@ -13034,8 +13826,12 @@
       <c r="R197" s="2">
         <v>205</v>
       </c>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S197" s="2">
+        <v>0</v>
+      </c>
+      <c r="T197" s="2"/>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>187</v>
       </c>
@@ -13090,8 +13886,12 @@
       <c r="R198" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S198" s="2">
+        <v>1</v>
+      </c>
+      <c r="T198" s="2"/>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>334</v>
       </c>
@@ -13146,8 +13946,12 @@
       <c r="R199" s="2">
         <v>109</v>
       </c>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S199" s="2">
+        <v>0</v>
+      </c>
+      <c r="T199" s="2"/>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>188</v>
       </c>
@@ -13202,8 +14006,12 @@
       <c r="R200" s="2">
         <v>137</v>
       </c>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S200" s="2">
+        <v>0</v>
+      </c>
+      <c r="T200" s="2"/>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>189</v>
       </c>
@@ -13258,8 +14066,12 @@
       <c r="R201" s="2">
         <v>340</v>
       </c>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S201" s="2">
+        <v>0</v>
+      </c>
+      <c r="T201" s="2"/>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>190</v>
       </c>
@@ -13314,8 +14126,12 @@
       <c r="R202" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S202" s="2">
+        <v>1</v>
+      </c>
+      <c r="T202" s="2"/>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>191</v>
       </c>
@@ -13370,8 +14186,12 @@
       <c r="R203" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S203" s="2">
+        <v>1</v>
+      </c>
+      <c r="T203" s="2"/>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>192</v>
       </c>
@@ -13426,8 +14246,12 @@
       <c r="R204" s="2">
         <v>257</v>
       </c>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S204" s="2">
+        <v>0</v>
+      </c>
+      <c r="T204" s="2"/>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>193</v>
       </c>
@@ -13482,8 +14306,12 @@
       <c r="R205" s="2">
         <v>302</v>
       </c>
-    </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S205" s="2">
+        <v>0</v>
+      </c>
+      <c r="T205" s="2"/>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>194</v>
       </c>
@@ -13538,8 +14366,12 @@
       <c r="R206" s="2">
         <v>261</v>
       </c>
-    </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S206" s="2">
+        <v>0</v>
+      </c>
+      <c r="T206" s="2"/>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>361</v>
       </c>
@@ -13594,8 +14426,12 @@
       <c r="R207" s="2">
         <v>306</v>
       </c>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S207" s="2">
+        <v>0</v>
+      </c>
+      <c r="T207" s="2"/>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>195</v>
       </c>
@@ -13650,8 +14486,12 @@
       <c r="R208" s="2">
         <v>228</v>
       </c>
-    </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S208" s="2">
+        <v>0</v>
+      </c>
+      <c r="T208" s="2"/>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>347</v>
       </c>
@@ -13706,8 +14546,12 @@
       <c r="R209" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S209" s="2">
+        <v>0</v>
+      </c>
+      <c r="T209" s="2"/>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>364</v>
       </c>
@@ -13762,8 +14606,12 @@
       <c r="R210" s="2">
         <v>338</v>
       </c>
-    </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S210" s="2">
+        <v>0</v>
+      </c>
+      <c r="T210" s="2"/>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>196</v>
       </c>
@@ -13818,8 +14666,12 @@
       <c r="R211" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S211" s="2">
+        <v>1</v>
+      </c>
+      <c r="T211" s="2"/>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>359</v>
       </c>
@@ -13874,8 +14726,12 @@
       <c r="R212" s="2">
         <v>303</v>
       </c>
-    </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S212" s="2">
+        <v>0</v>
+      </c>
+      <c r="T212" s="2"/>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>197</v>
       </c>
@@ -13930,8 +14786,12 @@
       <c r="R213" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S213" s="2">
+        <v>1</v>
+      </c>
+      <c r="T213" s="2"/>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>355</v>
       </c>
@@ -13986,8 +14846,12 @@
       <c r="R214" s="2">
         <v>280</v>
       </c>
-    </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S214" s="2">
+        <v>0</v>
+      </c>
+      <c r="T214" s="2"/>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>198</v>
       </c>
@@ -14042,8 +14906,12 @@
       <c r="R215" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S215" s="2">
+        <v>1</v>
+      </c>
+      <c r="T215" s="2"/>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>199</v>
       </c>
@@ -14098,8 +14966,12 @@
       <c r="R216" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S216" s="2">
+        <v>1</v>
+      </c>
+      <c r="T216" s="2"/>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>200</v>
       </c>
@@ -14154,8 +15026,12 @@
       <c r="R217" s="2">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S217" s="2">
+        <v>0</v>
+      </c>
+      <c r="T217" s="2"/>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>201</v>
       </c>
@@ -14210,8 +15086,12 @@
       <c r="R218" s="2">
         <v>193</v>
       </c>
-    </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S218" s="2">
+        <v>0</v>
+      </c>
+      <c r="T218" s="2"/>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>202</v>
       </c>
@@ -14266,8 +15146,12 @@
       <c r="R219" s="2">
         <v>197</v>
       </c>
-    </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S219" s="2">
+        <v>0</v>
+      </c>
+      <c r="T219" s="2"/>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>203</v>
       </c>
@@ -14322,8 +15206,12 @@
       <c r="R220" s="2">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S220" s="2">
+        <v>0</v>
+      </c>
+      <c r="T220" s="2"/>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>204</v>
       </c>
@@ -14378,8 +15266,12 @@
       <c r="R221" s="2">
         <v>249</v>
       </c>
-    </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S221" s="2">
+        <v>0</v>
+      </c>
+      <c r="T221" s="2"/>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>205</v>
       </c>
@@ -14434,8 +15326,12 @@
       <c r="R222" s="2">
         <v>226</v>
       </c>
-    </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S222" s="2">
+        <v>0</v>
+      </c>
+      <c r="T222" s="2"/>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>206</v>
       </c>
@@ -14490,8 +15386,12 @@
       <c r="R223" s="2">
         <v>217</v>
       </c>
-    </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S223" s="2">
+        <v>0</v>
+      </c>
+      <c r="T223" s="2"/>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>207</v>
       </c>
@@ -14546,8 +15446,12 @@
       <c r="R224" s="2">
         <v>112</v>
       </c>
-    </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S224" s="2">
+        <v>0</v>
+      </c>
+      <c r="T224" s="2"/>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>208</v>
       </c>
@@ -14602,8 +15506,12 @@
       <c r="R225" s="2">
         <v>310</v>
       </c>
-    </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S225" s="2">
+        <v>0</v>
+      </c>
+      <c r="T225" s="2"/>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>209</v>
       </c>
@@ -14658,8 +15566,12 @@
       <c r="R226" s="2">
         <v>159</v>
       </c>
-    </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S226" s="2">
+        <v>0</v>
+      </c>
+      <c r="T226" s="2"/>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>210</v>
       </c>
@@ -14714,8 +15626,12 @@
       <c r="R227" s="2">
         <v>125</v>
       </c>
-    </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S227" s="2">
+        <v>0</v>
+      </c>
+      <c r="T227" s="2"/>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>211</v>
       </c>
@@ -14770,8 +15686,12 @@
       <c r="R228" s="2">
         <v>142</v>
       </c>
-    </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S228" s="2">
+        <v>0</v>
+      </c>
+      <c r="T228" s="2"/>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>212</v>
       </c>
@@ -14826,8 +15746,12 @@
       <c r="R229" s="2">
         <v>188</v>
       </c>
-    </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S229" s="2">
+        <v>0</v>
+      </c>
+      <c r="T229" s="2"/>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>213</v>
       </c>
@@ -14882,8 +15806,12 @@
       <c r="R230" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S230" s="2">
+        <v>1</v>
+      </c>
+      <c r="T230" s="2"/>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>214</v>
       </c>
@@ -14938,8 +15866,12 @@
       <c r="R231" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S231" s="2">
+        <v>0</v>
+      </c>
+      <c r="T231" s="2"/>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>215</v>
       </c>
@@ -14994,8 +15926,12 @@
       <c r="R232" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S232" s="2">
+        <v>1</v>
+      </c>
+      <c r="T232" s="2"/>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>216</v>
       </c>
@@ -15050,8 +15986,12 @@
       <c r="R233" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S233" s="2">
+        <v>1</v>
+      </c>
+      <c r="T233" s="2"/>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>217</v>
       </c>
@@ -15106,8 +16046,12 @@
       <c r="R234" s="2">
         <v>163</v>
       </c>
-    </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S234" s="2">
+        <v>0</v>
+      </c>
+      <c r="T234" s="2"/>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>218</v>
       </c>
@@ -15162,8 +16106,12 @@
       <c r="R235" s="2">
         <v>194</v>
       </c>
-    </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S235" s="2">
+        <v>0</v>
+      </c>
+      <c r="T235" s="2"/>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>219</v>
       </c>
@@ -15218,8 +16166,12 @@
       <c r="R236" s="2">
         <v>113</v>
       </c>
-    </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S236" s="2">
+        <v>0</v>
+      </c>
+      <c r="T236" s="2"/>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>220</v>
       </c>
@@ -15274,8 +16226,12 @@
       <c r="R237" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S237" s="2">
+        <v>1</v>
+      </c>
+      <c r="T237" s="2"/>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>221</v>
       </c>
@@ -15330,8 +16286,12 @@
       <c r="R238" s="2">
         <v>122</v>
       </c>
-    </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S238" s="2">
+        <v>0</v>
+      </c>
+      <c r="T238" s="2"/>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>222</v>
       </c>
@@ -15386,8 +16346,12 @@
       <c r="R239" s="2">
         <v>115</v>
       </c>
-    </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S239" s="2">
+        <v>0</v>
+      </c>
+      <c r="T239" s="2"/>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>223</v>
       </c>
@@ -15442,8 +16406,12 @@
       <c r="R240" s="2">
         <v>283</v>
       </c>
-    </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S240" s="2">
+        <v>0</v>
+      </c>
+      <c r="T240" s="2"/>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>224</v>
       </c>
@@ -15498,8 +16466,12 @@
       <c r="R241" s="2">
         <v>158</v>
       </c>
-    </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S241" s="2">
+        <v>0</v>
+      </c>
+      <c r="T241" s="2"/>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>225</v>
       </c>
@@ -15554,8 +16526,12 @@
       <c r="R242" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S242" s="2">
+        <v>1</v>
+      </c>
+      <c r="T242" s="2"/>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>226</v>
       </c>
@@ -15610,8 +16586,12 @@
       <c r="R243" s="2">
         <v>255</v>
       </c>
-    </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S243" s="2">
+        <v>0</v>
+      </c>
+      <c r="T243" s="2"/>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>227</v>
       </c>
@@ -15666,8 +16646,12 @@
       <c r="R244" s="2">
         <v>178</v>
       </c>
-    </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S244" s="2">
+        <v>0</v>
+      </c>
+      <c r="T244" s="2"/>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>360</v>
       </c>
@@ -15722,8 +16706,12 @@
       <c r="R245" s="2">
         <v>305</v>
       </c>
-    </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S245" s="2">
+        <v>0</v>
+      </c>
+      <c r="T245" s="2"/>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>366</v>
       </c>
@@ -15778,8 +16766,12 @@
       <c r="R246" s="2">
         <v>349</v>
       </c>
-    </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S246" s="2">
+        <v>0</v>
+      </c>
+      <c r="T246" s="2"/>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>228</v>
       </c>
@@ -15834,8 +16826,12 @@
       <c r="R247" s="2">
         <v>118</v>
       </c>
-    </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S247" s="2">
+        <v>0</v>
+      </c>
+      <c r="T247" s="2"/>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>229</v>
       </c>
@@ -15890,8 +16886,12 @@
       <c r="R248" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S248" s="2">
+        <v>1</v>
+      </c>
+      <c r="T248" s="2"/>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>230</v>
       </c>
@@ -15946,8 +16946,12 @@
       <c r="R249" s="2">
         <v>140</v>
       </c>
-    </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S249" s="2">
+        <v>0</v>
+      </c>
+      <c r="T249" s="2"/>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>231</v>
       </c>
@@ -16002,8 +17006,12 @@
       <c r="R250" s="2">
         <v>105</v>
       </c>
-    </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S250" s="2">
+        <v>0</v>
+      </c>
+      <c r="T250" s="2"/>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>232</v>
       </c>
@@ -16058,8 +17066,12 @@
       <c r="R251" s="2">
         <v>229</v>
       </c>
-    </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S251" s="2">
+        <v>0</v>
+      </c>
+      <c r="T251" s="2"/>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>233</v>
       </c>
@@ -16114,8 +17126,12 @@
       <c r="R252" s="2">
         <v>156</v>
       </c>
-    </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S252" s="2">
+        <v>0</v>
+      </c>
+      <c r="T252" s="2"/>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>234</v>
       </c>
@@ -16170,8 +17186,12 @@
       <c r="R253" s="2">
         <v>301</v>
       </c>
-    </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S253" s="2">
+        <v>0</v>
+      </c>
+      <c r="T253" s="2"/>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>235</v>
       </c>
@@ -16226,8 +17246,12 @@
       <c r="R254" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S254" s="2">
+        <v>0</v>
+      </c>
+      <c r="T254" s="2"/>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>236</v>
       </c>
@@ -16282,8 +17306,12 @@
       <c r="R255" s="2">
         <v>199</v>
       </c>
-    </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S255" s="2">
+        <v>0</v>
+      </c>
+      <c r="T255" s="2"/>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>237</v>
       </c>
@@ -16338,8 +17366,12 @@
       <c r="R256" s="2">
         <v>119</v>
       </c>
-    </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S256" s="2">
+        <v>0</v>
+      </c>
+      <c r="T256" s="2"/>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>238</v>
       </c>
@@ -16394,8 +17426,12 @@
       <c r="R257" s="2">
         <v>190</v>
       </c>
-    </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S257" s="2">
+        <v>0</v>
+      </c>
+      <c r="T257" s="2"/>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>239</v>
       </c>
@@ -16450,8 +17486,12 @@
       <c r="R258" s="2">
         <v>266</v>
       </c>
-    </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S258" s="2">
+        <v>0</v>
+      </c>
+      <c r="T258" s="2"/>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>240</v>
       </c>
@@ -16506,8 +17546,12 @@
       <c r="R259" s="2">
         <v>337</v>
       </c>
-    </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S259" s="2">
+        <v>0</v>
+      </c>
+      <c r="T259" s="2"/>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>241</v>
       </c>
@@ -16562,8 +17606,12 @@
       <c r="R260" s="2">
         <v>295</v>
       </c>
-    </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S260" s="2">
+        <v>0</v>
+      </c>
+      <c r="T260" s="2"/>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>242</v>
       </c>
@@ -16618,8 +17666,12 @@
       <c r="R261" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S261" s="2">
+        <v>1</v>
+      </c>
+      <c r="T261" s="2"/>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>243</v>
       </c>
@@ -16674,8 +17726,12 @@
       <c r="R262" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S262" s="2">
+        <v>1</v>
+      </c>
+      <c r="T262" s="2"/>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>328</v>
       </c>
@@ -16730,8 +17786,12 @@
       <c r="R263" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S263" s="2">
+        <v>0</v>
+      </c>
+      <c r="T263" s="2"/>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>244</v>
       </c>
@@ -16786,8 +17846,12 @@
       <c r="R264" s="2">
         <v>231</v>
       </c>
-    </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S264" s="2">
+        <v>0</v>
+      </c>
+      <c r="T264" s="2"/>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>245</v>
       </c>
@@ -16842,8 +17906,12 @@
       <c r="R265" s="2">
         <v>126</v>
       </c>
-    </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S265" s="2">
+        <v>0</v>
+      </c>
+      <c r="T265" s="2"/>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>246</v>
       </c>
@@ -16898,8 +17966,12 @@
       <c r="R266" s="2">
         <v>313</v>
       </c>
-    </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S266" s="2">
+        <v>0</v>
+      </c>
+      <c r="T266" s="2"/>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>247</v>
       </c>
@@ -16954,8 +18026,12 @@
       <c r="R267" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S267" s="2">
+        <v>1</v>
+      </c>
+      <c r="T267" s="2"/>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>248</v>
       </c>
@@ -17010,8 +18086,12 @@
       <c r="R268" s="2">
         <v>146</v>
       </c>
-    </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S268" s="2">
+        <v>0</v>
+      </c>
+      <c r="T268" s="2"/>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>249</v>
       </c>
@@ -17066,8 +18146,12 @@
       <c r="R269" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S269" s="2">
+        <v>0</v>
+      </c>
+      <c r="T269" s="2"/>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>250</v>
       </c>
@@ -17122,8 +18206,12 @@
       <c r="R270" s="2">
         <v>278</v>
       </c>
-    </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S270" s="2">
+        <v>0</v>
+      </c>
+      <c r="T270" s="2"/>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>251</v>
       </c>
@@ -17178,8 +18266,12 @@
       <c r="R271" s="2">
         <v>202</v>
       </c>
-    </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S271" s="2">
+        <v>0</v>
+      </c>
+      <c r="T271" s="2"/>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>252</v>
       </c>
@@ -17234,8 +18326,12 @@
       <c r="R272" s="2">
         <v>274</v>
       </c>
-    </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S272" s="2">
+        <v>0</v>
+      </c>
+      <c r="T272" s="2"/>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>353</v>
       </c>
@@ -17290,8 +18386,12 @@
       <c r="R273" s="2">
         <v>267</v>
       </c>
-    </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S273" s="2">
+        <v>0</v>
+      </c>
+      <c r="T273" s="2"/>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>253</v>
       </c>
@@ -17346,8 +18446,12 @@
       <c r="R274" s="2">
         <v>136</v>
       </c>
-    </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S274" s="2">
+        <v>0</v>
+      </c>
+      <c r="T274" s="2"/>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>254</v>
       </c>
@@ -17402,8 +18506,12 @@
       <c r="R275" s="2">
         <v>162</v>
       </c>
-    </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S275" s="2">
+        <v>0</v>
+      </c>
+      <c r="T275" s="2"/>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>255</v>
       </c>
@@ -17458,8 +18566,12 @@
       <c r="R276" s="2">
         <v>281</v>
       </c>
-    </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S276" s="2">
+        <v>0</v>
+      </c>
+      <c r="T276" s="2"/>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>256</v>
       </c>
@@ -17514,8 +18626,12 @@
       <c r="R277" s="2">
         <v>332</v>
       </c>
-    </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S277" s="2">
+        <v>0</v>
+      </c>
+      <c r="T277" s="2"/>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>257</v>
       </c>
@@ -17570,8 +18686,12 @@
       <c r="R278" s="2">
         <v>175</v>
       </c>
-    </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S278" s="2">
+        <v>0</v>
+      </c>
+      <c r="T278" s="2"/>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>258</v>
       </c>
@@ -17626,8 +18746,12 @@
       <c r="R279" s="2">
         <v>139</v>
       </c>
-    </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S279" s="2">
+        <v>0</v>
+      </c>
+      <c r="T279" s="2"/>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>259</v>
       </c>
@@ -17682,8 +18806,12 @@
       <c r="R280" s="2">
         <v>143</v>
       </c>
-    </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S280" s="2">
+        <v>0</v>
+      </c>
+      <c r="T280" s="2"/>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>260</v>
       </c>
@@ -17738,8 +18866,12 @@
       <c r="R281" s="2">
         <v>259</v>
       </c>
-    </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S281" s="2">
+        <v>0</v>
+      </c>
+      <c r="T281" s="2"/>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>261</v>
       </c>
@@ -17794,8 +18926,12 @@
       <c r="R282" s="2">
         <v>227</v>
       </c>
-    </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S282" s="2">
+        <v>0</v>
+      </c>
+      <c r="T282" s="2"/>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>262</v>
       </c>
@@ -17850,8 +18986,12 @@
       <c r="R283" s="2">
         <v>252</v>
       </c>
-    </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S283" s="2">
+        <v>0</v>
+      </c>
+      <c r="T283" s="2"/>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>263</v>
       </c>
@@ -17906,8 +19046,12 @@
       <c r="R284" s="2">
         <v>319</v>
       </c>
-    </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S284" s="2">
+        <v>0</v>
+      </c>
+      <c r="T284" s="2"/>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>342</v>
       </c>
@@ -17962,8 +19106,12 @@
       <c r="R285" s="2">
         <v>181</v>
       </c>
-    </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S285" s="2">
+        <v>0</v>
+      </c>
+      <c r="T285" s="2"/>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>264</v>
       </c>
@@ -18018,8 +19166,12 @@
       <c r="R286" s="2">
         <v>318</v>
       </c>
-    </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S286" s="2">
+        <v>0</v>
+      </c>
+      <c r="T286" s="2"/>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>265</v>
       </c>
@@ -18074,8 +19226,12 @@
       <c r="R287" s="2">
         <v>201</v>
       </c>
-    </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S287" s="2">
+        <v>0</v>
+      </c>
+      <c r="T287" s="2"/>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>327</v>
       </c>
@@ -18130,8 +19286,12 @@
       <c r="R288" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S288" s="2">
+        <v>0</v>
+      </c>
+      <c r="T288" s="2"/>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>325</v>
       </c>
@@ -18186,8 +19346,12 @@
       <c r="R289" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S289" s="2">
+        <v>0</v>
+      </c>
+      <c r="T289" s="2"/>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>266</v>
       </c>
@@ -18242,8 +19406,12 @@
       <c r="R290" s="2">
         <v>346</v>
       </c>
-    </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S290" s="2">
+        <v>0</v>
+      </c>
+      <c r="T290" s="2"/>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>267</v>
       </c>
@@ -18298,8 +19466,12 @@
       <c r="R291" s="2">
         <v>176</v>
       </c>
-    </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S291" s="2">
+        <v>0</v>
+      </c>
+      <c r="T291" s="2"/>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>331</v>
       </c>
@@ -18354,8 +19526,12 @@
       <c r="R292" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S292" s="2">
+        <v>0</v>
+      </c>
+      <c r="T292" s="2"/>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>344</v>
       </c>
@@ -18410,8 +19586,12 @@
       <c r="R293" s="2">
         <v>187</v>
       </c>
-    </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S293" s="2">
+        <v>0</v>
+      </c>
+      <c r="T293" s="2"/>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>330</v>
       </c>
@@ -18466,8 +19646,12 @@
       <c r="R294" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S294" s="2">
+        <v>0</v>
+      </c>
+      <c r="T294" s="2"/>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>268</v>
       </c>
@@ -18522,8 +19706,12 @@
       <c r="R295" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S295" s="2">
+        <v>1</v>
+      </c>
+      <c r="T295" s="2"/>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>269</v>
       </c>
@@ -18578,8 +19766,12 @@
       <c r="R296" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S296" s="2">
+        <v>1</v>
+      </c>
+      <c r="T296" s="2"/>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>270</v>
       </c>
@@ -18634,8 +19826,12 @@
       <c r="R297" s="2">
         <v>334</v>
       </c>
-    </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S297" s="2">
+        <v>0</v>
+      </c>
+      <c r="T297" s="2"/>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>271</v>
       </c>
@@ -18690,8 +19886,12 @@
       <c r="R298" s="2">
         <v>169</v>
       </c>
-    </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S298" s="2">
+        <v>0</v>
+      </c>
+      <c r="T298" s="2"/>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>272</v>
       </c>
@@ -18746,8 +19946,12 @@
       <c r="R299" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S299" s="2">
+        <v>1</v>
+      </c>
+      <c r="T299" s="2"/>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>273</v>
       </c>
@@ -18802,8 +20006,12 @@
       <c r="R300" s="2">
         <v>174</v>
       </c>
-    </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S300" s="2">
+        <v>0</v>
+      </c>
+      <c r="T300" s="2"/>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>274</v>
       </c>
@@ -18858,8 +20066,12 @@
       <c r="R301" s="2">
         <v>327</v>
       </c>
-    </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S301" s="2">
+        <v>0</v>
+      </c>
+      <c r="T301" s="2"/>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>275</v>
       </c>
@@ -18914,8 +20126,12 @@
       <c r="R302" s="2">
         <v>298</v>
       </c>
-    </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S302" s="2">
+        <v>0</v>
+      </c>
+      <c r="T302" s="2"/>
+    </row>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>276</v>
       </c>
@@ -18970,8 +20186,12 @@
       <c r="R303" s="2">
         <v>211</v>
       </c>
-    </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S303" s="2">
+        <v>0</v>
+      </c>
+      <c r="T303" s="2"/>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>277</v>
       </c>
@@ -19026,8 +20246,12 @@
       <c r="R304" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S304" s="2">
+        <v>1</v>
+      </c>
+      <c r="T304" s="2"/>
+    </row>
+    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>278</v>
       </c>
@@ -19082,8 +20306,12 @@
       <c r="R305" s="2">
         <v>233</v>
       </c>
-    </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S305" s="2">
+        <v>0</v>
+      </c>
+      <c r="T305" s="2"/>
+    </row>
+    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>279</v>
       </c>
@@ -19138,8 +20366,12 @@
       <c r="R306" s="2">
         <v>147</v>
       </c>
-    </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S306" s="2">
+        <v>0</v>
+      </c>
+      <c r="T306" s="2"/>
+    </row>
+    <row r="307" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>280</v>
       </c>
@@ -19194,8 +20426,12 @@
       <c r="R307" s="2">
         <v>204</v>
       </c>
-    </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S307" s="2">
+        <v>0</v>
+      </c>
+      <c r="T307" s="2"/>
+    </row>
+    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>350</v>
       </c>
@@ -19250,8 +20486,12 @@
       <c r="R308" s="2">
         <v>215</v>
       </c>
-    </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S308" s="2">
+        <v>0</v>
+      </c>
+      <c r="T308" s="2"/>
+    </row>
+    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>336</v>
       </c>
@@ -19306,8 +20546,12 @@
       <c r="R309" s="2">
         <v>111</v>
       </c>
-    </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S309" s="2">
+        <v>0</v>
+      </c>
+      <c r="T309" s="2"/>
+    </row>
+    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>281</v>
       </c>
@@ -19362,8 +20606,12 @@
       <c r="R310" s="2">
         <v>312</v>
       </c>
-    </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S310" s="2">
+        <v>0</v>
+      </c>
+      <c r="T310" s="2"/>
+    </row>
+    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>282</v>
       </c>
@@ -19418,8 +20666,12 @@
       <c r="R311" s="2">
         <v>308</v>
       </c>
-    </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S311" s="2">
+        <v>0</v>
+      </c>
+      <c r="T311" s="2"/>
+    </row>
+    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>283</v>
       </c>
@@ -19474,8 +20726,12 @@
       <c r="R312" s="2">
         <v>250</v>
       </c>
-    </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S312" s="2">
+        <v>1</v>
+      </c>
+      <c r="T312" s="2"/>
+    </row>
+    <row r="313" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>284</v>
       </c>
@@ -19530,8 +20786,12 @@
       <c r="R313" s="2">
         <v>307</v>
       </c>
-    </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S313" s="2">
+        <v>0</v>
+      </c>
+      <c r="T313" s="2"/>
+    </row>
+    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>285</v>
       </c>
@@ -19586,8 +20846,12 @@
       <c r="R314" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S314" s="2">
+        <v>0</v>
+      </c>
+      <c r="T314" s="2"/>
+    </row>
+    <row r="315" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>286</v>
       </c>
@@ -19642,8 +20906,12 @@
       <c r="R315" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S315" s="2">
+        <v>1</v>
+      </c>
+      <c r="T315" s="2"/>
+    </row>
+    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>287</v>
       </c>
@@ -19698,8 +20966,12 @@
       <c r="R316" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S316" s="2">
+        <v>0</v>
+      </c>
+      <c r="T316" s="2"/>
+    </row>
+    <row r="317" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>288</v>
       </c>
@@ -19754,8 +21026,12 @@
       <c r="R317" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S317" s="2">
+        <v>0</v>
+      </c>
+      <c r="T317" s="2"/>
+    </row>
+    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>289</v>
       </c>
@@ -19810,8 +21086,12 @@
       <c r="R318" s="2">
         <v>287</v>
       </c>
-    </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S318" s="2">
+        <v>0</v>
+      </c>
+      <c r="T318" s="2"/>
+    </row>
+    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>290</v>
       </c>
@@ -19866,8 +21146,12 @@
       <c r="R319" s="2">
         <v>224</v>
       </c>
-    </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S319" s="2">
+        <v>0</v>
+      </c>
+      <c r="T319" s="2"/>
+    </row>
+    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>291</v>
       </c>
@@ -19922,8 +21206,12 @@
       <c r="R320" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S320" s="2">
+        <v>1</v>
+      </c>
+      <c r="T320" s="2"/>
+    </row>
+    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>292</v>
       </c>
@@ -19978,8 +21266,12 @@
       <c r="R321" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S321" s="2">
+        <v>1</v>
+      </c>
+      <c r="T321" s="2"/>
+    </row>
+    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>293</v>
       </c>
@@ -20034,8 +21326,12 @@
       <c r="R322" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S322" s="2">
+        <v>0</v>
+      </c>
+      <c r="T322" s="2"/>
+    </row>
+    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>294</v>
       </c>
@@ -20090,8 +21386,12 @@
       <c r="R323" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S323" s="2">
+        <v>0</v>
+      </c>
+      <c r="T323" s="2"/>
+    </row>
+    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>295</v>
       </c>
@@ -20146,8 +21446,12 @@
       <c r="R324" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S324" s="2">
+        <v>0</v>
+      </c>
+      <c r="T324" s="2"/>
+    </row>
+    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>296</v>
       </c>
@@ -20202,8 +21506,12 @@
       <c r="R325" s="2">
         <v>195</v>
       </c>
-    </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S325" s="2">
+        <v>0</v>
+      </c>
+      <c r="T325" s="2"/>
+    </row>
+    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>297</v>
       </c>
@@ -20258,8 +21566,12 @@
       <c r="R326" s="2">
         <v>121</v>
       </c>
-    </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S326" s="2">
+        <v>0</v>
+      </c>
+      <c r="T326" s="2"/>
+    </row>
+    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>298</v>
       </c>
@@ -20314,8 +21626,12 @@
       <c r="R327" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S327" s="2">
+        <v>0</v>
+      </c>
+      <c r="T327" s="2"/>
+    </row>
+    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>299</v>
       </c>
@@ -20370,8 +21686,12 @@
       <c r="R328" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S328" s="2">
+        <v>1</v>
+      </c>
+      <c r="T328" s="2"/>
+    </row>
+    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>300</v>
       </c>
@@ -20426,8 +21746,12 @@
       <c r="R329" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S329" s="2">
+        <v>1</v>
+      </c>
+      <c r="T329" s="2"/>
+    </row>
+    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>301</v>
       </c>
@@ -20482,8 +21806,12 @@
       <c r="R330" s="2">
         <v>167</v>
       </c>
-    </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S330" s="2">
+        <v>0</v>
+      </c>
+      <c r="T330" s="2"/>
+    </row>
+    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>302</v>
       </c>
@@ -20538,8 +21866,12 @@
       <c r="R331" s="2">
         <v>244</v>
       </c>
-    </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S331" s="2">
+        <v>0</v>
+      </c>
+      <c r="T331" s="2"/>
+    </row>
+    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
         <v>303</v>
       </c>
@@ -20594,8 +21926,12 @@
       <c r="R332" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S332" s="2">
+        <v>1</v>
+      </c>
+      <c r="T332" s="2"/>
+    </row>
+    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>304</v>
       </c>
@@ -20650,8 +21986,12 @@
       <c r="R333" s="2">
         <v>214</v>
       </c>
-    </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S333" s="2">
+        <v>0</v>
+      </c>
+      <c r="T333" s="2"/>
+    </row>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>305</v>
       </c>
@@ -20706,8 +22046,12 @@
       <c r="R334" s="2">
         <v>117</v>
       </c>
-    </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S334" s="2">
+        <v>0</v>
+      </c>
+      <c r="T334" s="2"/>
+    </row>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
         <v>306</v>
       </c>
@@ -20762,8 +22106,12 @@
       <c r="R335" s="2">
         <v>221</v>
       </c>
-    </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S335" s="2">
+        <v>0</v>
+      </c>
+      <c r="T335" s="2"/>
+    </row>
+    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
         <v>307</v>
       </c>
@@ -20818,8 +22166,12 @@
       <c r="R336" s="2">
         <v>102</v>
       </c>
-    </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S336" s="2">
+        <v>0</v>
+      </c>
+      <c r="T336" s="2"/>
+    </row>
+    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>308</v>
       </c>
@@ -20874,8 +22226,12 @@
       <c r="R337" s="2">
         <v>148</v>
       </c>
-    </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S337" s="2">
+        <v>1</v>
+      </c>
+      <c r="T337" s="2"/>
+    </row>
+    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>309</v>
       </c>
@@ -20930,8 +22286,12 @@
       <c r="R338" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S338" s="2">
+        <v>0</v>
+      </c>
+      <c r="T338" s="2"/>
+    </row>
+    <row r="339" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
         <v>310</v>
       </c>
@@ -20986,8 +22346,12 @@
       <c r="R339" s="2">
         <v>218</v>
       </c>
-    </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S339" s="2">
+        <v>0</v>
+      </c>
+      <c r="T339" s="2"/>
+    </row>
+    <row r="340" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>311</v>
       </c>
@@ -21042,8 +22406,12 @@
       <c r="R340" s="2">
         <v>291</v>
       </c>
-    </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S340" s="2">
+        <v>0</v>
+      </c>
+      <c r="T340" s="2"/>
+    </row>
+    <row r="341" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
         <v>312</v>
       </c>
@@ -21098,8 +22466,12 @@
       <c r="R341" s="2">
         <v>129</v>
       </c>
-    </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S341" s="2">
+        <v>0</v>
+      </c>
+      <c r="T341" s="2"/>
+    </row>
+    <row r="342" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>313</v>
       </c>
@@ -21154,8 +22526,12 @@
       <c r="R342" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S342" s="2">
+        <v>1</v>
+      </c>
+      <c r="T342" s="2"/>
+    </row>
+    <row r="343" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>314</v>
       </c>
@@ -21210,8 +22586,12 @@
       <c r="R343" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S343" s="2">
+        <v>1</v>
+      </c>
+      <c r="T343" s="2"/>
+    </row>
+    <row r="344" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>315</v>
       </c>
@@ -21266,8 +22646,12 @@
       <c r="R344" s="2">
         <v>124</v>
       </c>
-    </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S344" s="2">
+        <v>0</v>
+      </c>
+      <c r="T344" s="2"/>
+    </row>
+    <row r="345" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>316</v>
       </c>
@@ -21322,8 +22706,12 @@
       <c r="R345" s="2">
         <v>177</v>
       </c>
-    </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S345" s="2">
+        <v>0</v>
+      </c>
+      <c r="T345" s="2"/>
+    </row>
+    <row r="346" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
         <v>317</v>
       </c>
@@ -21378,8 +22766,12 @@
       <c r="R346" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S346" s="2">
+        <v>1</v>
+      </c>
+      <c r="T346" s="2"/>
+    </row>
+    <row r="347" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
         <v>318</v>
       </c>
@@ -21434,8 +22826,12 @@
       <c r="R347" s="2">
         <v>152</v>
       </c>
-    </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S347" s="2">
+        <v>1</v>
+      </c>
+      <c r="T347" s="2"/>
+    </row>
+    <row r="348" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>319</v>
       </c>
@@ -21490,8 +22886,12 @@
       <c r="R348" s="2">
         <v>165</v>
       </c>
-    </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S348" s="2">
+        <v>0</v>
+      </c>
+      <c r="T348" s="2"/>
+    </row>
+    <row r="349" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>320</v>
       </c>
@@ -21546,8 +22946,12 @@
       <c r="R349" s="2">
         <v>141</v>
       </c>
-    </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S349" s="2">
+        <v>0</v>
+      </c>
+      <c r="T349" s="2"/>
+    </row>
+    <row r="350" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>321</v>
       </c>
@@ -21602,8 +23006,12 @@
       <c r="R350" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S350" s="2">
+        <v>1</v>
+      </c>
+      <c r="T350" s="2"/>
+    </row>
+    <row r="351" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>322</v>
       </c>
@@ -21658,8 +23066,12 @@
       <c r="R351" s="2">
         <v>104</v>
       </c>
-    </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S351" s="2">
+        <v>0</v>
+      </c>
+      <c r="T351" s="2"/>
+    </row>
+    <row r="352" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>323</v>
       </c>
@@ -21714,6 +23126,13 @@
       <c r="R352" s="2">
         <v>242</v>
       </c>
+      <c r="S352" s="8">
+        <v>0</v>
+      </c>
+      <c r="T352" s="2"/>
+    </row>
+    <row r="353" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S353" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
